--- a/config_12.22/shoping_config_vivo.xlsx
+++ b/config_12.22/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11134,10 +11134,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H467" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="W364" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H498" sqref="H498"/>
+      <selection pane="bottomRight" activeCell="Z392" sqref="Z392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35598,10 +35598,10 @@
         <v>9999999</v>
       </c>
       <c r="Y386" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z386" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA386" s="19">
         <v>44</v>
@@ -35667,10 +35667,10 @@
         <v>9999999</v>
       </c>
       <c r="Y387" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z387" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA387" s="19">
         <v>44</v>
@@ -35736,10 +35736,10 @@
         <v>9999999</v>
       </c>
       <c r="Y388" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z388" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA388" s="19">
         <v>44</v>
@@ -35804,11 +35804,11 @@
       <c r="X389" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y389" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z389" s="63">
-        <v>1606147199</v>
+      <c r="Y389" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z389" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA389" s="19">
         <v>45</v>
@@ -35873,11 +35873,11 @@
       <c r="X390" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y390" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z390" s="63">
-        <v>1606147199</v>
+      <c r="Y390" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z390" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA390" s="19">
         <v>45</v>
@@ -35942,11 +35942,11 @@
       <c r="X391" s="19">
         <v>9999999</v>
       </c>
-      <c r="Y391" s="63">
-        <v>1605571200</v>
-      </c>
-      <c r="Z391" s="63">
-        <v>1606147199</v>
+      <c r="Y391" s="49">
+        <v>1608595200</v>
+      </c>
+      <c r="Z391" s="49">
+        <v>1609171199</v>
       </c>
       <c r="AA391" s="19">
         <v>45</v>
@@ -36012,10 +36012,10 @@
         <v>9999999</v>
       </c>
       <c r="Y392" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z392" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA392" s="19">
         <v>46</v>
@@ -36081,10 +36081,10 @@
         <v>9999999</v>
       </c>
       <c r="Y393" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z393" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA393" s="19">
         <v>46</v>
@@ -36150,10 +36150,10 @@
         <v>9999999</v>
       </c>
       <c r="Y394" s="49">
-        <v>1605571200</v>
+        <v>1608595200</v>
       </c>
       <c r="Z394" s="49">
-        <v>1606147199</v>
+        <v>1609171199</v>
       </c>
       <c r="AA394" s="19">
         <v>46</v>

--- a/config_12.22/shoping_config_vivo.xlsx
+++ b/config_12.22/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1869">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7612,10 +7612,6 @@
   </si>
   <si>
     <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -11134,10 +11130,10 @@
   <dimension ref="A1:AN492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z392" sqref="Z392"/>
+      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11203,7 +11199,7 @@
         <v>1144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1167</v>
@@ -14996,7 +14992,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -15055,7 +15051,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -15114,7 +15110,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -15173,7 +15169,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15232,7 +15228,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15586,7 +15582,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15604,10 +15600,10 @@
         <v>100</v>
       </c>
       <c r="Q77" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="R77" s="39" t="s">
         <v>1710</v>
-      </c>
-      <c r="R77" s="39" t="s">
-        <v>1711</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15625,10 +15621,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
+        <v>1711</v>
+      </c>
+      <c r="AD77" s="39" t="s">
         <v>1712</v>
-      </c>
-      <c r="AD77" s="39" t="s">
-        <v>1713</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15651,7 +15647,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15669,10 +15665,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="R78" s="39" t="s">
         <v>1714</v>
-      </c>
-      <c r="R78" s="39" t="s">
-        <v>1715</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15690,10 +15686,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="AD78" s="39" t="s">
         <v>1716</v>
-      </c>
-      <c r="AD78" s="39" t="s">
-        <v>1717</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15849,7 +15845,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15867,10 +15863,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
+        <v>1718</v>
+      </c>
+      <c r="R81" s="39" t="s">
         <v>1719</v>
-      </c>
-      <c r="R81" s="39" t="s">
-        <v>1720</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15888,10 +15884,10 @@
         <v>580</v>
       </c>
       <c r="AC81" s="19" t="s">
+        <v>1720</v>
+      </c>
+      <c r="AD81" s="39" t="s">
         <v>1721</v>
-      </c>
-      <c r="AD81" s="39" t="s">
-        <v>1722</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -18614,7 +18610,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18673,7 +18669,7 @@
         <v>1147</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -21293,13 +21289,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
+        <v>1755</v>
+      </c>
+      <c r="I171" s="43" t="s">
         <v>1756</v>
       </c>
-      <c r="I171" s="43" t="s">
+      <c r="J171" s="43" t="s">
         <v>1757</v>
-      </c>
-      <c r="J171" s="43" t="s">
-        <v>1758</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21317,13 +21313,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
+        <v>1758</v>
+      </c>
+      <c r="R171" s="66" t="s">
         <v>1759</v>
       </c>
-      <c r="R171" s="66" t="s">
+      <c r="W171" s="43" t="s">
         <v>1760</v>
-      </c>
-      <c r="W171" s="43" t="s">
-        <v>1761</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21361,13 +21357,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21385,10 +21381,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21432,10 +21428,10 @@
         <v>1151</v>
       </c>
       <c r="I173" s="43" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J173" s="43" t="s">
         <v>1764</v>
-      </c>
-      <c r="J173" s="43" t="s">
-        <v>1765</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21453,10 +21449,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21497,13 +21493,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I174" s="43" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J174" s="43" t="s">
         <v>1766</v>
-      </c>
-      <c r="J174" s="43" t="s">
-        <v>1767</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21521,10 +21517,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="R174" s="66" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21565,13 +21561,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I175" s="43" t="s">
         <v>1168</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21633,13 +21629,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I176" s="43" t="s">
         <v>1769</v>
       </c>
-      <c r="I176" s="43" t="s">
+      <c r="J176" s="43" t="s">
         <v>1770</v>
-      </c>
-      <c r="J176" s="43" t="s">
-        <v>1771</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21657,10 +21653,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
+        <v>1771</v>
+      </c>
+      <c r="R176" s="66" t="s">
         <v>1772</v>
-      </c>
-      <c r="R176" s="66" t="s">
-        <v>1773</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21701,13 +21697,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I177" s="43" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J177" s="43" t="s">
         <v>1774</v>
-      </c>
-      <c r="J177" s="43" t="s">
-        <v>1775</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21725,10 +21721,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21769,13 +21765,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21796,7 +21792,7 @@
         <v>966</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21837,13 +21833,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I179" s="43" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J179" s="43" t="s">
         <v>1779</v>
-      </c>
-      <c r="J179" s="43" t="s">
-        <v>1780</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21861,10 +21857,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R179" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21905,13 +21901,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21929,10 +21925,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -21973,13 +21969,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21997,10 +21993,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R181" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -22041,13 +22037,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I182" s="43" t="s">
+        <v>1783</v>
+      </c>
+      <c r="J182" s="43" t="s">
         <v>1784</v>
-      </c>
-      <c r="J182" s="43" t="s">
-        <v>1785</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22065,10 +22061,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -22109,13 +22105,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22133,10 +22129,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R183" s="66" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22177,13 +22173,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22201,10 +22197,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22245,13 +22241,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="I185" s="43" t="s">
+        <v>1788</v>
+      </c>
+      <c r="J185" s="43" t="s">
         <v>1789</v>
-      </c>
-      <c r="J185" s="43" t="s">
-        <v>1790</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22272,7 +22268,7 @@
         <v>966</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -27976,7 +27972,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="75" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -31100,10 +31096,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J323" s="43" t="s">
         <v>1740</v>
-      </c>
-      <c r="J323" s="43" t="s">
-        <v>1741</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31124,10 +31120,10 @@
         <v>966</v>
       </c>
       <c r="R323" s="66" t="s">
+        <v>1741</v>
+      </c>
+      <c r="W323" s="43" t="s">
         <v>1742</v>
-      </c>
-      <c r="W323" s="43" t="s">
-        <v>1743</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31165,10 +31161,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31186,10 +31182,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
+        <v>1746</v>
+      </c>
+      <c r="R324" s="66" t="s">
         <v>1747</v>
-      </c>
-      <c r="R324" s="66" t="s">
-        <v>1748</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31230,10 +31226,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
+        <v>1748</v>
+      </c>
+      <c r="J325" s="43" t="s">
         <v>1749</v>
-      </c>
-      <c r="J325" s="43" t="s">
-        <v>1750</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31254,7 +31250,7 @@
         <v>966</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -37411,7 +37407,7 @@
         <v>1397</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37432,7 +37428,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="74" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -38427,13 +38423,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I430" s="43" t="s">
         <v>1725</v>
       </c>
-      <c r="I430" s="43" t="s">
+      <c r="J430" s="43" t="s">
         <v>1726</v>
-      </c>
-      <c r="J430" s="43" t="s">
-        <v>1727</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38454,10 +38450,10 @@
         <v>1421</v>
       </c>
       <c r="R430" s="66" t="s">
+        <v>1727</v>
+      </c>
+      <c r="W430" s="43" t="s">
         <v>1728</v>
-      </c>
-      <c r="W430" s="43" t="s">
-        <v>1729</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38495,13 +38491,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I431" s="43" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J431" s="43" t="s">
         <v>1730</v>
-      </c>
-      <c r="J431" s="43" t="s">
-        <v>1731</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38522,7 +38518,7 @@
         <v>1421</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38563,13 +38559,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I432" s="43" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J432" s="43" t="s">
         <v>1733</v>
-      </c>
-      <c r="J432" s="43" t="s">
-        <v>1734</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38590,7 +38586,7 @@
         <v>1421</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38631,13 +38627,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I433" s="43" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J433" s="43" t="s">
         <v>1736</v>
-      </c>
-      <c r="J433" s="43" t="s">
-        <v>1737</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38655,10 +38651,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
+        <v>1737</v>
+      </c>
+      <c r="R433" s="66" t="s">
         <v>1738</v>
-      </c>
-      <c r="R433" s="66" t="s">
-        <v>1739</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -42100,13 +42096,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I486" s="19" t="s">
         <v>1847</v>
       </c>
-      <c r="I486" s="19" t="s">
+      <c r="J486" s="19" t="s">
         <v>1848</v>
-      </c>
-      <c r="J486" s="19" t="s">
-        <v>1849</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -42124,10 +42120,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="R486" s="39" t="s">
         <v>1850</v>
-      </c>
-      <c r="R486" s="39" t="s">
-        <v>1851</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -42165,13 +42161,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J487" s="19" t="s">
         <v>1852</v>
-      </c>
-      <c r="I487" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J487" s="19" t="s">
-        <v>1853</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42189,10 +42185,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42230,13 +42226,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J488" s="19" t="s">
         <v>1855</v>
-      </c>
-      <c r="I488" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J488" s="19" t="s">
-        <v>1856</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42254,10 +42250,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
+        <v>1856</v>
+      </c>
+      <c r="R488" s="39" t="s">
         <v>1857</v>
-      </c>
-      <c r="R488" s="39" t="s">
-        <v>1858</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42298,10 +42294,10 @@
         <v>1366</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42319,7 +42315,7 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="R489" s="39" t="s">
         <v>1368</v>
@@ -42360,13 +42356,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I490" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J490" s="19" t="s">
         <v>1860</v>
-      </c>
-      <c r="I490" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J490" s="19" t="s">
-        <v>1861</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42384,10 +42380,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42425,10 +42421,10 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J491" s="19" t="s">
         <v>1493</v>
@@ -42449,7 +42445,7 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="R491" s="39" t="s">
         <v>1377</v>
@@ -42490,13 +42486,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="J492" s="19" t="s">
         <v>1865</v>
-      </c>
-      <c r="I492" s="19" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J492" s="19" t="s">
-        <v>1866</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42508,19 +42504,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="R492" s="39" t="s">
+        <v>1867</v>
+      </c>
+      <c r="W492" s="19" t="s">
         <v>1868</v>
-      </c>
-      <c r="W492" s="19" t="s">
-        <v>1869</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -43587,7 +43583,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43667,10 +43663,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>1084</v>
@@ -43735,10 +43731,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>1084</v>
@@ -43803,10 +43799,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="S4" s="33" t="s">
         <v>1084</v>
@@ -43871,10 +43867,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="S5" s="33" t="s">
         <v>1084</v>
@@ -43939,10 +43935,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="S6" s="33" t="s">
         <v>1084</v>
@@ -44007,10 +44003,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="S7" s="33" t="s">
         <v>1084</v>
@@ -44072,10 +44068,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="S8" s="33" t="s">
         <v>1084</v>
@@ -44139,10 +44135,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44212,10 +44208,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44283,10 +44279,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="S11" s="33" t="s">
         <v>1084</v>
@@ -44351,10 +44347,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="S12" s="33" t="s">
         <v>1084</v>
@@ -44419,10 +44415,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="S13" s="33" t="s">
         <v>1084</v>
@@ -44487,10 +44483,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>1091</v>
@@ -44556,10 +44552,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44630,10 +44626,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
@@ -44698,10 +44694,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
@@ -44766,10 +44762,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
@@ -44834,10 +44830,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
@@ -44902,10 +44898,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -44969,10 +44965,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
@@ -45042,10 +45038,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45113,10 +45109,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45186,10 +45182,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45260,10 +45256,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>

--- a/config_12.22/shoping_config_vivo.xlsx
+++ b/config_12.22/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -11129,7 +11129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="K60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -43504,8 +43504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43631,6 +43631,9 @@
       </c>
       <c r="C2" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="D2" s="11">
+        <v>10330</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>

--- a/config_12.22/shoping_config_vivo.xlsx
+++ b/config_12.22/shoping_config_vivo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1866">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -4197,34 +4197,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>79840</t>
     </r>
     <r>
@@ -4544,34 +4516,6 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1500</t>
     </r>
     <r>
@@ -4595,34 +4539,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4656,34 +4572,6 @@
   </si>
   <si>
     <r>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>5000</t>
     </r>
     <r>
@@ -4707,62 +4595,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4796,34 +4628,6 @@
   </si>
   <si>
     <r>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>49800</t>
     </r>
     <r>
@@ -4847,34 +4651,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>00,</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>498</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>万鲸币</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4907,10 +4683,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1亿鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7947,34 +7719,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7983,46 +7727,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>50万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8035,34 +7743,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加赠24万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠60万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠120万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠200万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠392万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠6万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8071,46 +7751,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加赠6000万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠9992万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠5万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>加赠100万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠335万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠660万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠1020万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠3.3万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>加赠10万鲸币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>加赠250万金币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -8248,6 +7892,121 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>24万金币</t>
+  </si>
+  <si>
+    <t>加赠24万金币</t>
+  </si>
+  <si>
+    <t>60万金币</t>
+  </si>
+  <si>
+    <t>加赠60万金币</t>
+  </si>
+  <si>
+    <t>120万金币</t>
+  </si>
+  <si>
+    <t>加赠120万金币</t>
+  </si>
+  <si>
+    <t>200万金币</t>
+  </si>
+  <si>
+    <t>加赠200万金币</t>
+  </si>
+  <si>
+    <t>392万金币</t>
+  </si>
+  <si>
+    <t>加赠392万金币</t>
+  </si>
+  <si>
+    <t>1992万金币</t>
+  </si>
+  <si>
+    <t>加赠1992万金币</t>
+  </si>
+  <si>
+    <t>6万金币</t>
+  </si>
+  <si>
+    <t>加赠6万金币</t>
+  </si>
+  <si>
+    <t>6000万金币</t>
+  </si>
+  <si>
+    <t>加赠6000万金币</t>
+  </si>
+  <si>
+    <t>3992万金币</t>
+  </si>
+  <si>
+    <t>加赠3992万金币</t>
+  </si>
+  <si>
+    <t>9992万金币</t>
+  </si>
+  <si>
+    <t>加赠9992万金币</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>加赠100万金币</t>
+  </si>
+  <si>
+    <t>335万金币</t>
+  </si>
+  <si>
+    <t>加赠335万金币</t>
+  </si>
+  <si>
+    <t>660万金币</t>
+  </si>
+  <si>
+    <t>加赠660万金币</t>
+  </si>
+  <si>
+    <t>1020万金币</t>
+  </si>
+  <si>
+    <t>加赠1020万金币</t>
+  </si>
+  <si>
+    <t>3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠3.3万金币</t>
+  </si>
+  <si>
+    <t>加赠10万金币</t>
+  </si>
+  <si>
+    <t>150万金币</t>
+  </si>
+  <si>
+    <t>300万金币</t>
+  </si>
+  <si>
+    <t>500万金币</t>
+  </si>
+  <si>
+    <t>980万金币</t>
+  </si>
+  <si>
+    <t>4980万金币</t>
+  </si>
+  <si>
+    <t>1亿金币</t>
+  </si>
+  <si>
+    <t>首充加赠8508888</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9095,16 +8854,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9161,8 +8920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9254,7 +9013,7 @@
         <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -9348,14 +9107,14 @@
         <v>1</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="U2" s="33" t="s">
         <v>1025</v>
       </c>
       <c r="V2" s="11"/>
       <c r="W2" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>47</v>
@@ -9364,7 +9123,7 @@
         <v>633</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AC2" s="11">
         <v>1</v>
@@ -9428,14 +9187,14 @@
         <v>2</v>
       </c>
       <c r="T3" s="33" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="U3" s="33" t="s">
         <v>1027</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>49</v>
@@ -9508,14 +9267,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="33" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U4" s="33" t="s">
         <v>1049</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>1050</v>
       </c>
       <c r="V4" s="11"/>
       <c r="W4" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X4" s="11" t="s">
         <v>50</v>
@@ -9591,11 +9350,11 @@
         <v>1030</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="V5" s="11"/>
       <c r="W5" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X5" s="11" t="s">
         <v>51</v>
@@ -9668,14 +9427,14 @@
         <v>5</v>
       </c>
       <c r="T6" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="U6" s="33" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V6" s="11"/>
       <c r="W6" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X6" s="11" t="s">
         <v>52</v>
@@ -9751,11 +9510,11 @@
         <v>1033</v>
       </c>
       <c r="U7" s="33" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V7" s="11"/>
       <c r="W7" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X7" s="11" t="s">
         <v>53</v>
@@ -9828,14 +9587,14 @@
         <v>8</v>
       </c>
       <c r="T8" s="33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="U8" s="33" t="s">
         <v>1054</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>1055</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="33" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="X8" s="11" t="s">
         <v>54</v>
@@ -9878,7 +9637,7 @@
         <v>43</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>44</v>
@@ -9908,13 +9667,13 @@
         <v>9</v>
       </c>
       <c r="T9" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U9" s="33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="W9" s="33" t="s">
         <v>1056</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>1056</v>
-      </c>
-      <c r="W9" s="33" t="s">
-        <v>1057</v>
       </c>
       <c r="X9" s="11" t="s">
         <v>55</v>
@@ -9956,7 +9715,7 @@
         <v>43</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>44</v>
@@ -9986,13 +9745,13 @@
         <v>10</v>
       </c>
       <c r="T10" s="33" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>56</v>
@@ -10442,7 +10201,7 @@
         <v>43</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>44</v>
@@ -10472,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="U16" s="2">
         <v>66</v>
@@ -10516,7 +10275,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>44</v>
@@ -10546,10 +10305,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>1062</v>
+        <v>1830</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>1062</v>
+        <v>1830</v>
       </c>
       <c r="W17" s="2" t="s">
         <v>46</v>
@@ -10590,7 +10349,7 @@
         <v>78</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>44</v>
@@ -10620,10 +10379,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>1064</v>
+        <v>1859</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>1064</v>
+        <v>1859</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>46</v>
@@ -10664,7 +10423,7 @@
         <v>78</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>44</v>
@@ -10694,10 +10453,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>1041</v>
+        <v>1860</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>1066</v>
+        <v>1860</v>
       </c>
       <c r="W19" s="2" t="s">
         <v>46</v>
@@ -10738,7 +10497,7 @@
         <v>78</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>44</v>
@@ -10768,10 +10527,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>1068</v>
+        <v>1861</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>1069</v>
+        <v>1861</v>
       </c>
       <c r="W20" s="2" t="s">
         <v>46</v>
@@ -10812,7 +10571,7 @@
         <v>78</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>44</v>
@@ -10842,10 +10601,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>1071</v>
+        <v>1862</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>1071</v>
+        <v>1862</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>46</v>
@@ -10886,7 +10645,7 @@
         <v>78</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>44</v>
@@ -10916,10 +10675,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>1073</v>
+        <v>1863</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>1073</v>
+        <v>1863</v>
       </c>
       <c r="W22" s="2" t="s">
         <v>46</v>
@@ -10960,7 +10719,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>44</v>
@@ -10990,10 +10749,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>1075</v>
+        <v>1864</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>1075</v>
+        <v>1864</v>
       </c>
       <c r="W23" s="2" t="s">
         <v>46</v>
@@ -11030,25 +10789,25 @@
       <c r="E24" s="46"/>
       <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="H24" s="11">
         <v>19800</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -11069,16 +10828,16 @@
         <v>6</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="W24" s="33" t="s">
         <v>1035</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="Y24" s="11" t="s">
         <v>641</v>
@@ -11129,11 +10888,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q77" sqref="Q77"/>
+      <selection pane="bottomRight" activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -11196,13 +10955,13 @@
         <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>83</v>
@@ -14927,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>944</v>
@@ -14992,7 +14751,7 @@
         <v>223</v>
       </c>
       <c r="H67" s="69" t="s">
-        <v>1839</v>
+        <v>1798</v>
       </c>
       <c r="L67" s="69">
         <v>-4</v>
@@ -15013,7 +14772,7 @@
         <v>78</v>
       </c>
       <c r="R67" s="69" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="W67" s="69" t="s">
         <v>525</v>
@@ -15051,7 +14810,7 @@
         <v>225</v>
       </c>
       <c r="H68" s="69" t="s">
-        <v>1840</v>
+        <v>1799</v>
       </c>
       <c r="L68" s="69">
         <v>-4</v>
@@ -15072,7 +14831,7 @@
         <v>78</v>
       </c>
       <c r="R68" s="69" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="W68" s="69" t="s">
         <v>525</v>
@@ -15110,7 +14869,7 @@
         <v>227</v>
       </c>
       <c r="H69" s="69" t="s">
-        <v>1841</v>
+        <v>1800</v>
       </c>
       <c r="L69" s="69">
         <v>-4</v>
@@ -15131,7 +14890,7 @@
         <v>78</v>
       </c>
       <c r="R69" s="69" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="W69" s="69" t="s">
         <v>525</v>
@@ -15169,7 +14928,7 @@
         <v>229</v>
       </c>
       <c r="H70" s="69" t="s">
-        <v>1842</v>
+        <v>1801</v>
       </c>
       <c r="L70" s="69">
         <v>-4</v>
@@ -15190,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="R70" s="69" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="W70" s="69" t="s">
         <v>525</v>
@@ -15228,7 +14987,7 @@
         <v>230</v>
       </c>
       <c r="H71" s="69" t="s">
-        <v>1843</v>
+        <v>1802</v>
       </c>
       <c r="L71" s="69">
         <v>-4</v>
@@ -15249,7 +15008,7 @@
         <v>78</v>
       </c>
       <c r="R71" s="69" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="W71" s="69" t="s">
         <v>525</v>
@@ -15582,7 +15341,7 @@
         <v>236</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>1722</v>
+        <v>1713</v>
       </c>
       <c r="L77" s="19">
         <v>-20</v>
@@ -15603,7 +15362,7 @@
         <v>488</v>
       </c>
       <c r="R77" s="39" t="s">
-        <v>1710</v>
+        <v>1701</v>
       </c>
       <c r="W77" s="19" t="s">
         <v>525</v>
@@ -15621,10 +15380,10 @@
         <v>78</v>
       </c>
       <c r="AC77" s="19" t="s">
-        <v>1711</v>
+        <v>1702</v>
       </c>
       <c r="AD77" s="39" t="s">
-        <v>1712</v>
+        <v>1703</v>
       </c>
       <c r="AH77" s="19">
         <v>1</v>
@@ -15647,7 +15406,7 @@
         <v>237</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>1723</v>
+        <v>1714</v>
       </c>
       <c r="L78" s="19">
         <v>-20</v>
@@ -15665,10 +15424,10 @@
         <v>1000</v>
       </c>
       <c r="Q78" s="19" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>1714</v>
+        <v>1705</v>
       </c>
       <c r="W78" s="19" t="s">
         <v>525</v>
@@ -15686,10 +15445,10 @@
         <v>78</v>
       </c>
       <c r="AC78" s="19" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="AD78" s="39" t="s">
-        <v>1716</v>
+        <v>1707</v>
       </c>
       <c r="AH78" s="19">
         <v>1</v>
@@ -15709,7 +15468,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>811</v>
@@ -15845,7 +15604,7 @@
         <v>240</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>1717</v>
+        <v>1708</v>
       </c>
       <c r="L81" s="19">
         <v>-20</v>
@@ -15863,10 +15622,10 @@
         <v>4800</v>
       </c>
       <c r="Q81" s="19" t="s">
-        <v>1718</v>
+        <v>1709</v>
       </c>
       <c r="R81" s="39" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="W81" s="19" t="s">
         <v>525</v>
@@ -15884,10 +15643,10 @@
         <v>580</v>
       </c>
       <c r="AC81" s="19" t="s">
-        <v>1720</v>
+        <v>1711</v>
       </c>
       <c r="AD81" s="39" t="s">
-        <v>1721</v>
+        <v>1712</v>
       </c>
       <c r="AH81" s="19">
         <v>1</v>
@@ -16096,10 +15855,10 @@
         <v>4800</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="W85" s="5" t="s">
         <v>527</v>
@@ -16202,10 +15961,10 @@
         <v>9600</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
       <c r="W87" s="5" t="s">
         <v>527</v>
@@ -18610,7 +18369,7 @@
         <v>320</v>
       </c>
       <c r="H128" s="69" t="s">
-        <v>1844</v>
+        <v>1803</v>
       </c>
       <c r="L128" s="69">
         <v>-10</v>
@@ -18631,7 +18390,7 @@
         <v>78</v>
       </c>
       <c r="R128" s="69" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
       <c r="W128" s="69" t="s">
         <v>525</v>
@@ -18666,10 +18425,10 @@
         <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="H129" s="69" t="s">
-        <v>1845</v>
+        <v>1804</v>
       </c>
       <c r="L129" s="69">
         <v>-11</v>
@@ -18690,7 +18449,7 @@
         <v>78</v>
       </c>
       <c r="R129" s="69" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="W129" s="69" t="s">
         <v>525</v>
@@ -19277,7 +19036,7 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
@@ -19338,7 +19097,7 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
@@ -21165,7 +20924,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="J169" s="19" t="s">
         <v>996</v>
@@ -21289,13 +21048,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I171" s="43" t="s">
-        <v>1756</v>
+        <v>1747</v>
       </c>
       <c r="J171" s="43" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="L171" s="43">
         <v>-28</v>
@@ -21313,13 +21072,13 @@
         <v>100</v>
       </c>
       <c r="Q171" s="43" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="R171" s="66" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
       <c r="W171" s="43" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="X171" s="43">
         <v>9999999</v>
@@ -21357,13 +21116,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I172" s="43" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="J172" s="43" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="L172" s="43">
         <v>-28</v>
@@ -21381,10 +21140,10 @@
         <v>300</v>
       </c>
       <c r="Q172" s="43" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="R172" s="66" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="W172" s="43" t="s">
         <v>528</v>
@@ -21425,13 +21184,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="43" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="I173" s="43" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="J173" s="43" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="L173" s="43">
         <v>-28</v>
@@ -21449,10 +21208,10 @@
         <v>600</v>
       </c>
       <c r="Q173" s="43" t="s">
-        <v>1758</v>
+        <v>1749</v>
       </c>
       <c r="R173" s="66" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="W173" s="43" t="s">
         <v>528</v>
@@ -21493,13 +21252,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I174" s="43" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="J174" s="43" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="L174" s="43">
         <v>-28</v>
@@ -21517,10 +21276,10 @@
         <v>600</v>
       </c>
       <c r="Q174" s="43" t="s">
+        <v>1749</v>
+      </c>
+      <c r="R174" s="66" t="s">
         <v>1758</v>
-      </c>
-      <c r="R174" s="66" t="s">
-        <v>1767</v>
       </c>
       <c r="W174" s="43" t="s">
         <v>528</v>
@@ -21561,13 +21320,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="43" t="s">
-        <v>1755</v>
+        <v>1746</v>
       </c>
       <c r="I175" s="43" t="s">
-        <v>1168</v>
+        <v>1159</v>
       </c>
       <c r="J175" s="43" t="s">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="L175" s="43">
         <v>-28</v>
@@ -21629,13 +21388,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I176" s="43" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="J176" s="43" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
       <c r="L176" s="43">
         <v>-28</v>
@@ -21653,10 +21412,10 @@
         <v>1800</v>
       </c>
       <c r="Q176" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R176" s="66" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="W176" s="43" t="s">
         <v>528</v>
@@ -21697,13 +21456,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I177" s="43" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="J177" s="43" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
       <c r="L177" s="43">
         <v>-28</v>
@@ -21721,10 +21480,10 @@
         <v>1800</v>
       </c>
       <c r="Q177" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R177" s="66" t="s">
-        <v>1775</v>
+        <v>1766</v>
       </c>
       <c r="W177" s="43" t="s">
         <v>528</v>
@@ -21765,13 +21524,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I178" s="43" t="s">
-        <v>1776</v>
+        <v>1767</v>
       </c>
       <c r="J178" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="L178" s="43">
         <v>-28</v>
@@ -21792,7 +21551,7 @@
         <v>966</v>
       </c>
       <c r="R178" s="66" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="W178" s="43" t="s">
         <v>528</v>
@@ -21833,13 +21592,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I179" s="43" t="s">
-        <v>1778</v>
+        <v>1769</v>
       </c>
       <c r="J179" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L179" s="43">
         <v>-28</v>
@@ -21857,10 +21616,10 @@
         <v>9800</v>
       </c>
       <c r="Q179" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R179" s="66" t="s">
         <v>1771</v>
-      </c>
-      <c r="R179" s="66" t="s">
-        <v>1780</v>
       </c>
       <c r="W179" s="43" t="s">
         <v>528</v>
@@ -21901,13 +21660,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I180" s="43" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="J180" s="43" t="s">
-        <v>1744</v>
+        <v>1735</v>
       </c>
       <c r="L180" s="43">
         <v>-28</v>
@@ -21925,10 +21684,10 @@
         <v>4800</v>
       </c>
       <c r="Q180" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R180" s="66" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="W180" s="43" t="s">
         <v>528</v>
@@ -21969,13 +21728,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I181" s="43" t="s">
-        <v>1782</v>
+        <v>1773</v>
       </c>
       <c r="J181" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L181" s="43">
         <v>-28</v>
@@ -21993,10 +21752,10 @@
         <v>9800</v>
       </c>
       <c r="Q181" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R181" s="66" t="s">
         <v>1771</v>
-      </c>
-      <c r="R181" s="66" t="s">
-        <v>1780</v>
       </c>
       <c r="W181" s="43" t="s">
         <v>528</v>
@@ -22037,13 +21796,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I182" s="43" t="s">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="J182" s="43" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="L182" s="43">
         <v>-28</v>
@@ -22061,10 +21820,10 @@
         <v>19800</v>
       </c>
       <c r="Q182" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R182" s="66" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="W182" s="43" t="s">
         <v>528</v>
@@ -22105,13 +21864,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I183" s="43" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
       <c r="J183" s="43" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="L183" s="43">
         <v>-28</v>
@@ -22129,10 +21888,10 @@
         <v>9800</v>
       </c>
       <c r="Q183" s="43" t="s">
+        <v>1762</v>
+      </c>
+      <c r="R183" s="66" t="s">
         <v>1771</v>
-      </c>
-      <c r="R183" s="66" t="s">
-        <v>1780</v>
       </c>
       <c r="W183" s="43" t="s">
         <v>528</v>
@@ -22173,13 +21932,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I184" s="43" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="J184" s="43" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="L184" s="43">
         <v>-28</v>
@@ -22197,10 +21956,10 @@
         <v>19800</v>
       </c>
       <c r="Q184" s="43" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="R184" s="66" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="W184" s="43" t="s">
         <v>528</v>
@@ -22241,13 +22000,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="43" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="I185" s="43" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="J185" s="43" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="L185" s="43">
         <v>-28</v>
@@ -22268,7 +22027,7 @@
         <v>966</v>
       </c>
       <c r="R185" s="66" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="W185" s="43" t="s">
         <v>528</v>
@@ -26728,7 +26487,7 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="J254" s="5" t="s">
         <v>934</v>
@@ -26923,7 +26682,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="J257" s="5" t="s">
         <v>869</v>
@@ -27446,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>875</v>
@@ -27706,7 +27465,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="J269" s="5" t="s">
         <v>877</v>
@@ -27972,7 +27731,7 @@
         <v>521</v>
       </c>
       <c r="H273" s="75" t="s">
-        <v>1842</v>
+        <v>1865</v>
       </c>
       <c r="L273" s="69">
         <v>-10</v>
@@ -27993,7 +27752,7 @@
         <v>78</v>
       </c>
       <c r="R273" s="69" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="W273" s="69" t="s">
         <v>525</v>
@@ -28232,7 +27991,7 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>881</v>
@@ -28297,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="J278" s="5" t="s">
         <v>882</v>
@@ -28362,7 +28121,7 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="J279" s="5" t="s">
         <v>883</v>
@@ -28427,7 +28186,7 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="J280" s="5" t="s">
         <v>880</v>
@@ -30916,10 +30675,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="L320" s="5">
         <v>-25</v>
@@ -30972,7 +30731,7 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="J321" s="5" t="s">
         <v>907</v>
@@ -31034,7 +30793,7 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="J322" s="5" t="s">
         <v>624</v>
@@ -31096,10 +30855,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="43" t="s">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="J323" s="43" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="L323" s="43">
         <v>-28</v>
@@ -31120,10 +30879,10 @@
         <v>966</v>
       </c>
       <c r="R323" s="66" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="W323" s="43" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="X323" s="43">
         <v>9999999</v>
@@ -31161,10 +30920,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="43" t="s">
-        <v>1743</v>
+        <v>1734</v>
       </c>
       <c r="J324" s="43" t="s">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="L324" s="43">
         <v>-28</v>
@@ -31182,10 +30941,10 @@
         <v>4800</v>
       </c>
       <c r="Q324" s="43" t="s">
-        <v>1746</v>
+        <v>1737</v>
       </c>
       <c r="R324" s="66" t="s">
-        <v>1747</v>
+        <v>1738</v>
       </c>
       <c r="W324" s="43" t="s">
         <v>528</v>
@@ -31226,10 +30985,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="43" t="s">
-        <v>1748</v>
+        <v>1739</v>
       </c>
       <c r="J325" s="43" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="L325" s="43">
         <v>-28</v>
@@ -31250,7 +31009,7 @@
         <v>966</v>
       </c>
       <c r="R325" s="66" t="s">
-        <v>1750</v>
+        <v>1741</v>
       </c>
       <c r="W325" s="43" t="s">
         <v>528</v>
@@ -31291,7 +31050,7 @@
         <v>1</v>
       </c>
       <c r="G326" s="40" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="J326" s="40" t="s">
         <v>970</v>
@@ -31350,7 +31109,7 @@
         <v>1</v>
       </c>
       <c r="G327" s="43" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="J327" s="43" t="s">
         <v>989</v>
@@ -31420,7 +31179,7 @@
       <c r="H328" s="43"/>
       <c r="I328" s="43"/>
       <c r="J328" s="43" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="K328" s="43"/>
       <c r="L328" s="43">
@@ -31433,13 +31192,13 @@
         <v>0</v>
       </c>
       <c r="O328" s="43" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="P328" s="43">
         <v>600</v>
       </c>
       <c r="Q328" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R328" s="66" t="s">
         <v>990</v>
@@ -31449,7 +31208,7 @@
       <c r="U328" s="43"/>
       <c r="V328" s="43"/>
       <c r="W328" s="43" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="X328" s="43">
         <v>99999999</v>
@@ -31503,7 +31262,7 @@
       <c r="H329" s="43"/>
       <c r="I329" s="43"/>
       <c r="J329" s="43" t="s">
-        <v>1650</v>
+        <v>1641</v>
       </c>
       <c r="K329" s="43"/>
       <c r="L329" s="43">
@@ -31516,23 +31275,23 @@
         <v>0</v>
       </c>
       <c r="O329" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P329" s="43">
         <v>2800</v>
       </c>
       <c r="Q329" s="43" t="s">
-        <v>1652</v>
+        <v>1643</v>
       </c>
       <c r="R329" s="66" t="s">
-        <v>1653</v>
+        <v>1644</v>
       </c>
       <c r="S329" s="43"/>
       <c r="T329" s="43"/>
       <c r="U329" s="43"/>
       <c r="V329" s="43"/>
       <c r="W329" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X329" s="43">
         <v>99999999</v>
@@ -31586,7 +31345,7 @@
       <c r="H330" s="43"/>
       <c r="I330" s="43"/>
       <c r="J330" s="43" t="s">
-        <v>1654</v>
+        <v>1645</v>
       </c>
       <c r="K330" s="43"/>
       <c r="L330" s="43">
@@ -31599,23 +31358,23 @@
         <v>0</v>
       </c>
       <c r="O330" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P330" s="43">
         <v>4800</v>
       </c>
       <c r="Q330" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R330" s="66" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="S330" s="43"/>
       <c r="T330" s="43"/>
       <c r="U330" s="43"/>
       <c r="V330" s="43"/>
       <c r="W330" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X330" s="43">
         <v>99999999</v>
@@ -31669,7 +31428,7 @@
       <c r="H331" s="43"/>
       <c r="I331" s="43"/>
       <c r="J331" s="43" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="K331" s="43"/>
       <c r="L331" s="43">
@@ -31688,17 +31447,17 @@
         <v>9900</v>
       </c>
       <c r="Q331" s="43" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="R331" s="66" t="s">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="S331" s="43"/>
       <c r="T331" s="43"/>
       <c r="U331" s="43"/>
       <c r="V331" s="43"/>
       <c r="W331" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X331" s="43">
         <v>99999999</v>
@@ -31752,7 +31511,7 @@
       <c r="H332" s="43"/>
       <c r="I332" s="43"/>
       <c r="J332" s="43" t="s">
-        <v>1659</v>
+        <v>1650</v>
       </c>
       <c r="K332" s="43"/>
       <c r="L332" s="43">
@@ -31765,23 +31524,23 @@
         <v>0</v>
       </c>
       <c r="O332" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P332" s="43">
         <v>19800</v>
       </c>
       <c r="Q332" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R332" s="66" t="s">
-        <v>1660</v>
+        <v>1651</v>
       </c>
       <c r="S332" s="43"/>
       <c r="T332" s="43"/>
       <c r="U332" s="43"/>
       <c r="V332" s="43"/>
       <c r="W332" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X332" s="43">
         <v>99999999</v>
@@ -31835,7 +31594,7 @@
       <c r="H333" s="43"/>
       <c r="I333" s="43"/>
       <c r="J333" s="43" t="s">
-        <v>1661</v>
+        <v>1652</v>
       </c>
       <c r="K333" s="43"/>
       <c r="L333" s="43">
@@ -31854,17 +31613,17 @@
         <v>29800</v>
       </c>
       <c r="Q333" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R333" s="66" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43"/>
       <c r="W333" s="43" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="X333" s="43">
         <v>99999999</v>
@@ -31918,7 +31677,7 @@
       <c r="H334" s="43"/>
       <c r="I334" s="43"/>
       <c r="J334" s="43" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="K334" s="43"/>
       <c r="L334" s="43">
@@ -31931,23 +31690,23 @@
         <v>0</v>
       </c>
       <c r="O334" s="43" t="s">
-        <v>1665</v>
+        <v>1656</v>
       </c>
       <c r="P334" s="43">
         <v>39800</v>
       </c>
       <c r="Q334" s="43" t="s">
-        <v>1666</v>
+        <v>1657</v>
       </c>
       <c r="R334" s="66" t="s">
-        <v>1667</v>
+        <v>1658</v>
       </c>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43"/>
       <c r="W334" s="43" t="s">
-        <v>1663</v>
+        <v>1654</v>
       </c>
       <c r="X334" s="43">
         <v>99999999</v>
@@ -32001,7 +31760,7 @@
       <c r="H335" s="43"/>
       <c r="I335" s="43"/>
       <c r="J335" s="43" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="K335" s="43"/>
       <c r="L335" s="43">
@@ -32014,23 +31773,23 @@
         <v>0</v>
       </c>
       <c r="O335" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P335" s="43">
         <v>49800</v>
       </c>
       <c r="Q335" s="43" t="s">
-        <v>1648</v>
+        <v>1639</v>
       </c>
       <c r="R335" s="66" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="S335" s="43"/>
       <c r="T335" s="43"/>
       <c r="U335" s="43"/>
       <c r="V335" s="43"/>
       <c r="W335" s="43" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X335" s="43">
         <v>99999999</v>
@@ -32084,7 +31843,7 @@
       <c r="H336" s="43"/>
       <c r="I336" s="43"/>
       <c r="J336" s="43" t="s">
-        <v>1670</v>
+        <v>1661</v>
       </c>
       <c r="K336" s="43"/>
       <c r="L336" s="43">
@@ -32097,23 +31856,23 @@
         <v>0</v>
       </c>
       <c r="O336" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P336" s="43">
         <v>59800</v>
       </c>
       <c r="Q336" s="43" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="R336" s="66" t="s">
-        <v>1671</v>
+        <v>1662</v>
       </c>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43"/>
       <c r="W336" s="43" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="X336" s="43">
         <v>99999999</v>
@@ -32167,7 +31926,7 @@
       <c r="H337" s="43"/>
       <c r="I337" s="43"/>
       <c r="J337" s="43" t="s">
-        <v>1672</v>
+        <v>1663</v>
       </c>
       <c r="K337" s="43"/>
       <c r="L337" s="43">
@@ -32180,23 +31939,23 @@
         <v>0</v>
       </c>
       <c r="O337" s="43" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="P337" s="43">
         <v>69800</v>
       </c>
       <c r="Q337" s="43" t="s">
-        <v>1657</v>
+        <v>1648</v>
       </c>
       <c r="R337" s="66" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43"/>
       <c r="W337" s="43" t="s">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="X337" s="43">
         <v>99999999</v>
@@ -32242,7 +32001,7 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1165</v>
+        <v>1156</v>
       </c>
       <c r="J338" s="19" t="s">
         <v>1008</v>
@@ -32398,7 +32157,7 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1166</v>
+        <v>1157</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -32480,12 +32239,12 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1169</v>
+        <v>1160</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="6"/>
       <c r="J341" s="5" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="L341" s="5">
         <v>-31</v>
@@ -32497,19 +32256,19 @@
         <v>0</v>
       </c>
       <c r="O341" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P341" s="5">
         <v>600</v>
       </c>
       <c r="Q341" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R341" s="10" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="W341" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X341" s="5">
         <v>9999999</v>
@@ -32524,10 +32283,10 @@
         <v>26</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC341" s="5" t="s">
-        <v>1176</v>
+        <v>1167</v>
       </c>
       <c r="AH341" s="5">
         <v>1</v>
@@ -32553,10 +32312,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1177</v>
+        <v>1168</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>1178</v>
+        <v>1169</v>
       </c>
       <c r="L342" s="5">
         <v>-31</v>
@@ -32568,19 +32327,19 @@
         <v>0</v>
       </c>
       <c r="O342" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P342" s="5">
         <v>600</v>
       </c>
       <c r="Q342" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R342" s="10" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X342" s="5">
         <v>9999999</v>
@@ -32595,10 +32354,10 @@
         <v>27</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC342" s="5" t="s">
-        <v>1179</v>
+        <v>1170</v>
       </c>
       <c r="AH342" s="5">
         <v>1</v>
@@ -32624,10 +32383,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1180</v>
+        <v>1171</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>1181</v>
+        <v>1172</v>
       </c>
       <c r="L343" s="5">
         <v>-31</v>
@@ -32639,19 +32398,19 @@
         <v>0</v>
       </c>
       <c r="O343" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P343" s="5">
         <v>600</v>
       </c>
       <c r="Q343" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R343" s="10" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="W343" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X343" s="5">
         <v>9999999</v>
@@ -32666,10 +32425,10 @@
         <v>28</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC343" s="5" t="s">
-        <v>1182</v>
+        <v>1173</v>
       </c>
       <c r="AH343" s="5">
         <v>1</v>
@@ -32695,10 +32454,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1183</v>
+        <v>1174</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>1184</v>
+        <v>1175</v>
       </c>
       <c r="L344" s="5">
         <v>-31</v>
@@ -32710,19 +32469,19 @@
         <v>0</v>
       </c>
       <c r="O344" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P344" s="5">
         <v>4800</v>
       </c>
       <c r="Q344" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R344" s="10" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X344" s="5">
         <v>9999999</v>
@@ -32737,10 +32496,10 @@
         <v>29</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC344" s="5" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="AH344" s="5">
         <v>1</v>
@@ -32766,10 +32525,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="L345" s="5">
         <v>-31</v>
@@ -32781,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="O345" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P345" s="5">
         <v>4800</v>
       </c>
       <c r="Q345" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R345" s="10" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="W345" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X345" s="5">
         <v>9999999</v>
@@ -32808,10 +32567,10 @@
         <v>30</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC345" s="5" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="AH345" s="5">
         <v>1</v>
@@ -32837,10 +32596,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="L346" s="5">
         <v>-31</v>
@@ -32852,19 +32611,19 @@
         <v>0</v>
       </c>
       <c r="O346" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P346" s="5">
         <v>4800</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R346" s="10" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X346" s="5">
         <v>9999999</v>
@@ -32879,10 +32638,10 @@
         <v>31</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC346" s="5" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="AH346" s="5">
         <v>1</v>
@@ -32908,10 +32667,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="L347" s="5">
         <v>-31</v>
@@ -32923,19 +32682,19 @@
         <v>0</v>
       </c>
       <c r="O347" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P347" s="5">
         <v>9800</v>
       </c>
       <c r="Q347" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R347" s="10" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="W347" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X347" s="5">
         <v>9999999</v>
@@ -32950,10 +32709,10 @@
         <v>32</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC347" s="5" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="AH347" s="5">
         <v>1</v>
@@ -32979,10 +32738,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="L348" s="5">
         <v>-31</v>
@@ -32994,19 +32753,19 @@
         <v>0</v>
       </c>
       <c r="O348" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P348" s="5">
         <v>9800</v>
       </c>
       <c r="Q348" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R348" s="10" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X348" s="5">
         <v>9999999</v>
@@ -33021,10 +32780,10 @@
         <v>33</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC348" s="5" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="AH348" s="5">
         <v>1</v>
@@ -33050,10 +32809,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="L349" s="5">
         <v>-31</v>
@@ -33071,13 +32830,13 @@
         <v>9800</v>
       </c>
       <c r="Q349" s="5" t="s">
-        <v>1172</v>
+        <v>1163</v>
       </c>
       <c r="R349" s="10" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="W349" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X349" s="5">
         <v>9999999</v>
@@ -33092,10 +32851,10 @@
         <v>34</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC349" s="5" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="AH349" s="5">
         <v>1</v>
@@ -33121,10 +32880,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="L350" s="5">
         <v>-31</v>
@@ -33145,10 +32904,10 @@
         <v>965</v>
       </c>
       <c r="R350" s="10" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X350" s="5">
         <v>9999999</v>
@@ -33166,7 +32925,7 @@
         <v>446</v>
       </c>
       <c r="AC350" s="5" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="AH350" s="5">
         <v>1</v>
@@ -33192,10 +32951,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="L351" s="5">
         <v>-31</v>
@@ -33207,7 +32966,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P351" s="5">
         <v>19800</v>
@@ -33216,10 +32975,10 @@
         <v>965</v>
       </c>
       <c r="R351" s="10" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="W351" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X351" s="5">
         <v>9999999</v>
@@ -33237,7 +32996,7 @@
         <v>446</v>
       </c>
       <c r="AC351" s="5" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="AH351" s="5">
         <v>1</v>
@@ -33263,10 +33022,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="L352" s="5">
         <v>-31</v>
@@ -33287,7 +33046,7 @@
         <v>965</v>
       </c>
       <c r="R352" s="10" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>567</v>
@@ -33305,10 +33064,10 @@
         <v>37</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1175</v>
+        <v>1166</v>
       </c>
       <c r="AC352" s="5" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="AH352" s="5">
         <v>1</v>
@@ -33334,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L353" s="5">
         <v>-31</v>
@@ -33358,13 +33117,13 @@
         <v>600</v>
       </c>
       <c r="Q353" s="5" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="R353" s="10" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="W353" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="X353" s="5">
         <v>9999999</v>
@@ -33402,13 +33161,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L354" s="5">
         <v>-31</v>
@@ -33420,19 +33179,19 @@
         <v>0</v>
       </c>
       <c r="O354" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P354" s="5">
         <v>1200</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="R354" s="10" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="X354" s="5">
         <v>9999999</v>
@@ -33470,13 +33229,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L355" s="5">
         <v>-31</v>
@@ -33488,16 +33247,16 @@
         <v>0</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P355" s="5">
         <v>1800</v>
       </c>
       <c r="Q355" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="R355" s="10" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="W355" s="5" t="s">
         <v>596</v>
@@ -33538,13 +33297,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L356" s="5">
         <v>-31</v>
@@ -33562,13 +33321,13 @@
         <v>4800</v>
       </c>
       <c r="Q356" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R356" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X356" s="5">
         <v>9999999</v>
@@ -33606,13 +33365,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L357" s="5">
         <v>-31</v>
@@ -33624,19 +33383,19 @@
         <v>0</v>
       </c>
       <c r="O357" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P357" s="5">
         <v>9800</v>
       </c>
       <c r="Q357" s="5" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="R357" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W357" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X357" s="5">
         <v>9999999</v>
@@ -33674,13 +33433,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L358" s="5">
         <v>-31</v>
@@ -33692,13 +33451,13 @@
         <v>0</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P358" s="5">
         <v>19800</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R358" s="10" t="s">
         <v>272</v>
@@ -33742,13 +33501,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L359" s="5">
         <v>-31</v>
@@ -33760,19 +33519,19 @@
         <v>0</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P359" s="5">
         <v>9800</v>
       </c>
       <c r="Q359" s="5" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="R359" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W359" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X359" s="5">
         <v>9999999</v>
@@ -33810,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I360" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="I360" s="5" t="s">
-        <v>1124</v>
-      </c>
       <c r="J360" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L360" s="5">
         <v>-31</v>
@@ -33828,19 +33587,19 @@
         <v>0</v>
       </c>
       <c r="O360" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P360" s="5">
         <v>19800</v>
       </c>
       <c r="Q360" s="5" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="R360" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X360" s="5">
         <v>9999999</v>
@@ -33878,13 +33637,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L361" s="5">
         <v>-31</v>
@@ -33896,19 +33655,19 @@
         <v>0</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P361" s="5">
         <v>49800</v>
       </c>
       <c r="Q361" s="5" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="R361" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W361" s="5" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="X361" s="5">
         <v>9999999</v>
@@ -33946,13 +33705,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L362" s="5">
         <v>-31</v>
@@ -33970,10 +33729,10 @@
         <v>1800</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="R362" s="10" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="W362" s="5" t="s">
         <v>567</v>
@@ -33991,10 +33750,10 @@
         <v>38</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="AC362" s="5" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="AH362" s="5">
         <v>1</v>
@@ -34020,13 +33779,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="L363" s="5">
         <v>-31</v>
@@ -34038,19 +33797,19 @@
         <v>0</v>
       </c>
       <c r="O363" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P363" s="5">
         <v>19800</v>
       </c>
       <c r="Q363" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R363" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W363" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X363" s="5">
         <v>9999999</v>
@@ -34065,10 +33824,10 @@
         <v>39</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="AC363" s="5" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="AH363" s="5">
         <v>1</v>
@@ -34094,13 +33853,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L364" s="5">
         <v>-31</v>
@@ -34112,19 +33871,19 @@
         <v>0</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P364" s="5">
         <v>49800</v>
       </c>
       <c r="Q364" s="5" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="R364" s="10" t="s">
         <v>272</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X364" s="5">
         <v>9999999</v>
@@ -34139,10 +33898,10 @@
         <v>40</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="AC364" s="5" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="AH364" s="5">
         <v>1</v>
@@ -34168,10 +33927,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="L365" s="5">
         <v>-31</v>
@@ -34183,16 +33942,16 @@
         <v>0</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P365" s="5">
         <v>131400</v>
       </c>
       <c r="Q365" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="R365" s="10" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="W365" s="5" t="s">
         <v>567</v>
@@ -34233,10 +33992,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>1220</v>
+        <v>1211</v>
       </c>
       <c r="L366" s="5">
         <v>-31</v>
@@ -34248,16 +34007,16 @@
         <v>0</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P366" s="5">
         <v>52000</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="R366" s="10" t="s">
-        <v>1221</v>
+        <v>1212</v>
       </c>
       <c r="W366" s="5" t="s">
         <v>567</v>
@@ -34298,10 +34057,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1222</v>
+        <v>1213</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="L367" s="5">
         <v>-31</v>
@@ -34313,19 +34072,19 @@
         <v>0</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P367" s="5">
         <v>25800</v>
       </c>
       <c r="Q367" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="R367" s="10" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="W367" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X367" s="5">
         <v>9999999</v>
@@ -34363,10 +34122,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="L368" s="5">
         <v>-31</v>
@@ -34378,16 +34137,16 @@
         <v>0</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P368" s="5">
         <v>14700</v>
       </c>
       <c r="Q368" s="5" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="R368" s="10" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="W368" s="5" t="s">
         <v>567</v>
@@ -34428,10 +34187,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="L369" s="5">
         <v>-31</v>
@@ -34449,13 +34208,13 @@
         <v>5200</v>
       </c>
       <c r="Q369" s="5" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
       <c r="R369" s="10" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="W369" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X369" s="5">
         <v>9999999</v>
@@ -34493,10 +34252,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="L370" s="5">
         <v>-31</v>
@@ -34514,7 +34273,7 @@
         <v>1800</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R370" s="10" t="s">
         <v>732</v>
@@ -34555,10 +34314,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
       <c r="L371" s="5">
         <v>-31</v>
@@ -34576,10 +34335,10 @@
         <v>4800</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R371" s="10" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="W371" s="5" t="s">
         <v>597</v>
@@ -34617,10 +34376,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="L372" s="5">
         <v>-31</v>
@@ -34638,7 +34397,7 @@
         <v>9800</v>
       </c>
       <c r="Q372" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R372" s="10" t="s">
         <v>736</v>
@@ -34679,10 +34438,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="L373" s="5">
         <v>-31</v>
@@ -34700,13 +34459,13 @@
         <v>19800</v>
       </c>
       <c r="Q373" s="5" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="R373" s="10" t="s">
         <v>737</v>
       </c>
       <c r="W373" s="5" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="X373" s="5">
         <v>9999999</v>
@@ -34741,13 +34500,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="L374" s="5">
         <v>-31</v>
@@ -34759,7 +34518,7 @@
         <v>0</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>1171</v>
+        <v>1162</v>
       </c>
       <c r="P374" s="5">
         <v>600</v>
@@ -34768,7 +34527,7 @@
         <v>524</v>
       </c>
       <c r="R374" s="10" t="s">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="W374" s="5" t="s">
         <v>567</v>
@@ -34809,13 +34568,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
-        <v>1250</v>
+        <v>1241</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1251</v>
+        <v>1242</v>
       </c>
       <c r="J375" s="5" t="s">
-        <v>1252</v>
+        <v>1243</v>
       </c>
       <c r="L375" s="5">
         <v>-31</v>
@@ -34827,19 +34586,19 @@
         <v>0</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P375" s="5">
         <v>300</v>
       </c>
       <c r="Q375" s="5" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="R375" s="10" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="W375" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="X375" s="5">
         <v>9999999</v>
@@ -34877,13 +34636,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="L376" s="5">
         <v>-31</v>
@@ -34895,19 +34654,19 @@
         <v>0</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P376" s="5">
         <v>0</v>
       </c>
       <c r="Q376" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R376" s="10" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="W376" s="5" t="s">
-        <v>1265</v>
+        <v>1256</v>
       </c>
       <c r="X376" s="5">
         <v>9999999</v>
@@ -34945,10 +34704,10 @@
         <v>1</v>
       </c>
       <c r="G377" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I377" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="J377" s="5" t="s">
         <v>973</v>
@@ -34963,19 +34722,19 @@
         <v>0</v>
       </c>
       <c r="O377" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P377" s="5">
         <v>300</v>
       </c>
       <c r="Q377" s="5" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="R377" s="10" t="s">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="W377" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="X377" s="5">
         <v>9999999</v>
@@ -35013,13 +34772,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J378" s="5" t="s">
         <v>1258</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J378" s="5" t="s">
-        <v>1267</v>
       </c>
       <c r="L378" s="5">
         <v>-31</v>
@@ -35037,13 +34796,13 @@
         <v>600</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R378" s="10" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>1269</v>
+        <v>1260</v>
       </c>
       <c r="X378" s="5">
         <v>9999999</v>
@@ -35081,10 +34840,10 @@
         <v>1</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>1260</v>
+        <v>1251</v>
       </c>
       <c r="J379" s="5" t="s">
         <v>882</v>
@@ -35099,19 +34858,19 @@
         <v>0</v>
       </c>
       <c r="O379" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P379" s="5">
         <v>1800</v>
       </c>
       <c r="Q379" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R379" s="10" t="s">
-        <v>1281</v>
+        <v>1272</v>
       </c>
       <c r="W379" s="5" t="s">
-        <v>1270</v>
+        <v>1261</v>
       </c>
       <c r="X379" s="5">
         <v>9999999</v>
@@ -35149,10 +34908,10 @@
         <v>1</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>883</v>
@@ -35167,19 +34926,19 @@
         <v>0</v>
       </c>
       <c r="O380" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P380" s="5">
         <v>4800</v>
       </c>
       <c r="Q380" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R380" s="10" t="s">
-        <v>1282</v>
+        <v>1273</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="X380" s="5">
         <v>9999999</v>
@@ -35217,13 +34976,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1261</v>
+        <v>1252</v>
       </c>
       <c r="L381" s="5">
         <v>-31</v>
@@ -35241,10 +35000,10 @@
         <v>0</v>
       </c>
       <c r="Q381" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R381" s="10" t="s">
-        <v>1264</v>
+        <v>1255</v>
       </c>
       <c r="W381" s="5" t="s">
         <v>569</v>
@@ -35285,13 +35044,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="L382" s="5">
         <v>-31</v>
@@ -35309,13 +35068,13 @@
         <v>1800</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>1262</v>
+        <v>1253</v>
       </c>
       <c r="R382" s="10" t="s">
-        <v>1273</v>
+        <v>1264</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="X382" s="5">
         <v>9999999</v>
@@ -35353,13 +35112,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1274</v>
+        <v>1265</v>
       </c>
       <c r="L383" s="5">
         <v>-31</v>
@@ -35377,10 +35136,10 @@
         <v>4800</v>
       </c>
       <c r="Q383" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R383" s="10" t="s">
-        <v>1275</v>
+        <v>1266</v>
       </c>
       <c r="W383" s="5" t="s">
         <v>535</v>
@@ -35421,13 +35180,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I384" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>1276</v>
+        <v>1267</v>
       </c>
       <c r="L384" s="5">
         <v>-31</v>
@@ -35439,13 +35198,13 @@
         <v>0</v>
       </c>
       <c r="O384" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P384" s="5">
         <v>9800</v>
       </c>
       <c r="Q384" s="5" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="R384" s="10" t="s">
         <v>736</v>
@@ -35489,13 +35248,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1272</v>
+        <v>1263</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="L385" s="5">
         <v>-31</v>
@@ -35507,19 +35266,19 @@
         <v>0</v>
       </c>
       <c r="O385" s="5" t="s">
-        <v>1253</v>
+        <v>1244</v>
       </c>
       <c r="P385" s="5">
         <v>19800</v>
       </c>
       <c r="Q385" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="R385" s="10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="W385" s="5" t="s">
         <v>1262</v>
-      </c>
-      <c r="R385" s="10" t="s">
-        <v>1278</v>
-      </c>
-      <c r="W385" s="5" t="s">
-        <v>1271</v>
       </c>
       <c r="X385" s="5">
         <v>9999999</v>
@@ -35557,14 +35316,14 @@
         <v>1</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="H386" s="49"/>
       <c r="I386" s="19" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="J386" s="19" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="L386" s="19">
         <v>-31</v>
@@ -35582,10 +35341,10 @@
         <v>1800</v>
       </c>
       <c r="Q386" s="19" t="s">
-        <v>1286</v>
+        <v>1277</v>
       </c>
       <c r="R386" s="39" t="s">
-        <v>1287</v>
+        <v>1278</v>
       </c>
       <c r="W386" s="19" t="s">
         <v>535</v>
@@ -35626,14 +35385,14 @@
         <v>1</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H387" s="49"/>
       <c r="I387" s="19" t="s">
-        <v>1289</v>
+        <v>1280</v>
       </c>
       <c r="J387" s="19" t="s">
-        <v>1290</v>
+        <v>1281</v>
       </c>
       <c r="L387" s="19">
         <v>-31</v>
@@ -35645,16 +35404,16 @@
         <v>0</v>
       </c>
       <c r="O387" s="19" t="s">
-        <v>1291</v>
+        <v>1282</v>
       </c>
       <c r="P387" s="19">
         <v>3000</v>
       </c>
       <c r="Q387" s="19" t="s">
-        <v>1292</v>
+        <v>1283</v>
       </c>
       <c r="R387" s="39" t="s">
-        <v>1293</v>
+        <v>1284</v>
       </c>
       <c r="W387" s="19" t="s">
         <v>535</v>
@@ -35695,14 +35454,14 @@
         <v>1</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="H388" s="49"/>
       <c r="I388" s="19" t="s">
-        <v>1295</v>
+        <v>1286</v>
       </c>
       <c r="J388" s="19" t="s">
-        <v>1296</v>
+        <v>1287</v>
       </c>
       <c r="L388" s="19">
         <v>-31</v>
@@ -35714,19 +35473,19 @@
         <v>0</v>
       </c>
       <c r="O388" s="19" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="P388" s="19">
         <v>4800</v>
       </c>
       <c r="Q388" s="19" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="R388" s="39" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="W388" s="19" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="X388" s="19">
         <v>9999999</v>
@@ -35764,14 +35523,14 @@
         <v>1</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="H389" s="63"/>
       <c r="I389" s="19" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="J389" s="19" t="s">
-        <v>1303</v>
+        <v>1294</v>
       </c>
       <c r="L389" s="19">
         <v>-31</v>
@@ -35783,16 +35542,16 @@
         <v>0</v>
       </c>
       <c r="O389" s="19" t="s">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="P389" s="19">
         <v>4800</v>
       </c>
       <c r="Q389" s="19" t="s">
-        <v>1305</v>
+        <v>1296</v>
       </c>
       <c r="R389" s="39" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="W389" s="19" t="s">
         <v>535</v>
@@ -35833,14 +35592,14 @@
         <v>1</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H390" s="63"/>
       <c r="I390" s="19" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="J390" s="19" t="s">
-        <v>1306</v>
+        <v>1297</v>
       </c>
       <c r="L390" s="19">
         <v>-31</v>
@@ -35858,10 +35617,10 @@
         <v>9800</v>
       </c>
       <c r="Q390" s="19" t="s">
-        <v>1307</v>
+        <v>1298</v>
       </c>
       <c r="R390" s="39" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="W390" s="19" t="s">
         <v>535</v>
@@ -35902,14 +35661,14 @@
         <v>1</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="H391" s="63"/>
       <c r="I391" s="19" t="s">
-        <v>1302</v>
+        <v>1293</v>
       </c>
       <c r="J391" s="19" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="L391" s="19">
         <v>-31</v>
@@ -35927,10 +35686,10 @@
         <v>19800</v>
       </c>
       <c r="Q391" s="19" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="R391" s="39" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="W391" s="19" t="s">
         <v>535</v>
@@ -35971,14 +35730,14 @@
         <v>1</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>1283</v>
+        <v>1274</v>
       </c>
       <c r="H392" s="49"/>
       <c r="I392" s="19" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="J392" s="19" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="L392" s="19">
         <v>-31</v>
@@ -35996,10 +35755,10 @@
         <v>9800</v>
       </c>
       <c r="Q392" s="19" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="R392" s="39" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="W392" s="19" t="s">
         <v>535</v>
@@ -36040,14 +35799,14 @@
         <v>1</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="H393" s="49"/>
       <c r="I393" s="19" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="J393" s="19" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="L393" s="19">
         <v>-31</v>
@@ -36065,10 +35824,10 @@
         <v>19800</v>
       </c>
       <c r="Q393" s="19" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="R393" s="39" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="W393" s="19" t="s">
         <v>535</v>
@@ -36109,14 +35868,14 @@
         <v>1</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="H394" s="49"/>
       <c r="I394" s="19" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="J394" s="19" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="L394" s="19">
         <v>-31</v>
@@ -36128,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="O394" s="19" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="P394" s="19">
         <v>49800</v>
       </c>
       <c r="Q394" s="19" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="R394" s="39" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
       <c r="W394" s="19" t="s">
         <v>535</v>
@@ -36178,10 +35937,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="5" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="L395" s="5">
         <v>-31</v>
@@ -36193,16 +35952,16 @@
         <v>0</v>
       </c>
       <c r="O395" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P395" s="5">
         <v>600</v>
       </c>
       <c r="Q395" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="R395" s="10" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="W395" s="5" t="s">
         <v>528</v>
@@ -36240,10 +35999,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="5" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="L396" s="5">
         <v>-31</v>
@@ -36255,16 +36014,16 @@
         <v>0</v>
       </c>
       <c r="O396" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P396" s="5">
         <v>2000</v>
       </c>
       <c r="Q396" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="R396" s="10" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="W396" s="5" t="s">
         <v>528</v>
@@ -36305,7 +36064,7 @@
         <v>289</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="L397" s="5">
         <v>-31</v>
@@ -36323,10 +36082,10 @@
         <v>4800</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="R397" s="10" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="W397" s="5" t="s">
         <v>528</v>
@@ -36367,7 +36126,7 @@
         <v>292</v>
       </c>
       <c r="J398" s="5" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="L398" s="5">
         <v>-31</v>
@@ -36385,10 +36144,10 @@
         <v>9800</v>
       </c>
       <c r="Q398" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R398" s="10" t="s">
         <v>1336</v>
-      </c>
-      <c r="R398" s="10" t="s">
-        <v>1345</v>
       </c>
       <c r="W398" s="5" t="s">
         <v>528</v>
@@ -36426,10 +36185,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="5" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="J399" s="5" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="L399" s="5">
         <v>-31</v>
@@ -36441,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="O399" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P399" s="5">
         <v>19800</v>
       </c>
       <c r="Q399" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="R399" s="10" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="W399" s="5" t="s">
         <v>528</v>
@@ -36488,10 +36247,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="5" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="L400" s="5">
         <v>-31</v>
@@ -36503,16 +36262,16 @@
         <v>0</v>
       </c>
       <c r="O400" s="5" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="P400" s="5">
         <v>49800</v>
       </c>
       <c r="Q400" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="R400" s="10" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="W400" s="5" t="s">
         <v>528</v>
@@ -36550,10 +36309,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="5" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="J401" s="5" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="L401" s="5">
         <v>-31</v>
@@ -36571,13 +36330,13 @@
         <v>1800</v>
       </c>
       <c r="Q401" s="5" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="R401" s="5" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="W401" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X401" s="5">
         <v>99999999</v>
@@ -36615,10 +36374,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="5" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="L402" s="5">
         <v>-31</v>
@@ -36630,19 +36389,19 @@
         <v>0</v>
       </c>
       <c r="O402" s="5" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="P402" s="5">
         <v>4800</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="R402" s="5" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X402" s="5">
         <v>99999999</v>
@@ -36680,10 +36439,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="5" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
       <c r="L403" s="5">
         <v>-31</v>
@@ -36701,13 +36460,13 @@
         <v>9800</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="R403" s="5" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
       <c r="W403" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X403" s="5">
         <v>99999999</v>
@@ -36745,10 +36504,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
       <c r="L404" s="5">
         <v>-31</v>
@@ -36766,13 +36525,13 @@
         <v>19800</v>
       </c>
       <c r="Q404" s="5" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="R404" s="5" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X404" s="5">
         <v>99999999</v>
@@ -36810,10 +36569,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="5" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
       <c r="L405" s="5">
         <v>-31</v>
@@ -36831,13 +36590,13 @@
         <v>29800</v>
       </c>
       <c r="Q405" s="5" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="R405" s="5" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="W405" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X405" s="5">
         <v>99999999</v>
@@ -36875,10 +36634,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="J406" s="5" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="L406" s="5">
         <v>-31</v>
@@ -36896,13 +36655,13 @@
         <v>49800</v>
       </c>
       <c r="Q406" s="5" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
       <c r="R406" s="5" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="X406" s="5">
         <v>99999999</v>
@@ -36940,10 +36699,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="5" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="J407" s="5" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="L407" s="5">
         <v>-31</v>
@@ -36955,19 +36714,19 @@
         <v>0</v>
       </c>
       <c r="O407" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="P407" s="5">
         <v>99800</v>
       </c>
       <c r="Q407" s="5" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="R407" s="5" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="W407" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X407" s="5">
         <v>99999999</v>
@@ -37005,11 +36764,11 @@
         <v>1</v>
       </c>
       <c r="G408" s="49" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="H408" s="5"/>
       <c r="J408" s="49" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="L408" s="49">
         <v>-31</v>
@@ -37021,16 +36780,16 @@
         <v>0</v>
       </c>
       <c r="O408" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P408" s="49">
         <v>600</v>
       </c>
       <c r="Q408" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R408" s="50" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="W408" s="49" t="s">
         <v>567</v>
@@ -37071,11 +36830,11 @@
         <v>1</v>
       </c>
       <c r="G409" s="49" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="H409" s="5"/>
       <c r="J409" s="49" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="L409" s="49">
         <v>-31</v>
@@ -37087,19 +36846,19 @@
         <v>0</v>
       </c>
       <c r="O409" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P409" s="49">
         <v>2000</v>
       </c>
       <c r="Q409" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R409" s="50" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="W409" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="X409" s="49">
         <v>99999999</v>
@@ -37137,11 +36896,11 @@
         <v>1</v>
       </c>
       <c r="G410" s="49" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="H410" s="5"/>
       <c r="J410" s="49" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="L410" s="49">
         <v>-31</v>
@@ -37153,16 +36912,16 @@
         <v>0</v>
       </c>
       <c r="O410" s="49" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="P410" s="49">
         <v>4800</v>
       </c>
       <c r="Q410" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R410" s="50" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="W410" s="49" t="s">
         <v>567</v>
@@ -37203,11 +36962,11 @@
         <v>1</v>
       </c>
       <c r="G411" s="49" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="H411" s="5"/>
       <c r="J411" s="49" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
       <c r="L411" s="49">
         <v>-31</v>
@@ -37225,13 +36984,13 @@
         <v>9800</v>
       </c>
       <c r="Q411" s="49" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="R411" s="50" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="W411" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="X411" s="49">
         <v>99999999</v>
@@ -37269,11 +37028,11 @@
         <v>1</v>
       </c>
       <c r="G412" s="49" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="H412" s="5"/>
       <c r="J412" s="49" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="L412" s="49">
         <v>-31</v>
@@ -37291,10 +37050,10 @@
         <v>19800</v>
       </c>
       <c r="Q412" s="49" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="R412" s="50" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="W412" s="49" t="s">
         <v>567</v>
@@ -37335,11 +37094,11 @@
         <v>1</v>
       </c>
       <c r="G413" s="49" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="H413" s="5"/>
       <c r="J413" s="49" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="L413" s="49">
         <v>-31</v>
@@ -37357,13 +37116,13 @@
         <v>49800</v>
       </c>
       <c r="Q413" s="49" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="R413" s="50" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="W413" s="49" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="X413" s="49">
         <v>99999999</v>
@@ -37404,10 +37163,10 @@
         <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="H414" s="69" t="s">
-        <v>1838</v>
+        <v>1797</v>
       </c>
       <c r="L414" s="69">
         <v>-4</v>
@@ -37428,7 +37187,7 @@
         <v>78</v>
       </c>
       <c r="R414" s="74" t="s">
-        <v>1837</v>
+        <v>1796</v>
       </c>
       <c r="W414" s="69" t="s">
         <v>525</v>
@@ -37460,13 +37219,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J415" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L415" s="6">
         <v>-31</v>
@@ -37484,10 +37243,10 @@
         <v>600</v>
       </c>
       <c r="Q415" s="5" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="R415" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W415" s="6" t="s">
         <v>535</v>
@@ -37528,13 +37287,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J416" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L416" s="6">
         <v>-31</v>
@@ -37552,13 +37311,13 @@
         <v>1800</v>
       </c>
       <c r="Q416" s="5" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="R416" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W416" s="6" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="X416" s="14" t="s">
         <v>109</v>
@@ -37596,13 +37355,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="I417" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="J417" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L417" s="6">
         <v>-31</v>
@@ -37620,13 +37379,13 @@
         <v>4800</v>
       </c>
       <c r="Q417" s="5" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="R417" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W417" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X417" s="14" t="s">
         <v>109</v>
@@ -37664,13 +37423,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I418" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="I418" s="6" t="s">
-        <v>1437</v>
-      </c>
       <c r="J418" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L418" s="6">
         <v>-31</v>
@@ -37688,13 +37447,13 @@
         <v>9800</v>
       </c>
       <c r="Q418" s="5" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="R418" s="52" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="W418" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X418" s="14" t="s">
         <v>109</v>
@@ -37732,13 +37491,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="J419" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="L419" s="6">
         <v>-31</v>
@@ -37756,13 +37515,13 @@
         <v>19800</v>
       </c>
       <c r="Q419" s="5" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="R419" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W419" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X419" s="14" t="s">
         <v>109</v>
@@ -37800,13 +37559,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="J420" s="6" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="L420" s="6">
         <v>-31</v>
@@ -37824,13 +37583,13 @@
         <v>49800</v>
       </c>
       <c r="Q420" s="5" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="R420" s="52" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="W420" s="6" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="X420" s="14" t="s">
         <v>109</v>
@@ -37868,10 +37627,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="J421" s="19" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="L421" s="19">
         <v>-31</v>
@@ -37883,19 +37642,19 @@
         <v>0</v>
       </c>
       <c r="O421" s="19" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="P421" s="19">
         <v>1000</v>
       </c>
       <c r="Q421" s="19" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="R421" s="39" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="W421" s="19" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X421" s="19">
         <v>9999999</v>
@@ -37907,10 +37666,10 @@
         <v>2552233600</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="AC421" s="19" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="AH421" s="19">
         <v>1</v>
@@ -37936,14 +37695,14 @@
         <v>1</v>
       </c>
       <c r="G422" s="53" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="H422" s="6"/>
       <c r="I422" s="53" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="J422" s="53" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="L422" s="53">
         <v>-31</v>
@@ -37961,13 +37720,13 @@
         <v>2000</v>
       </c>
       <c r="Q422" s="53" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="R422" s="54" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="W422" s="53" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="X422" s="53">
         <v>99999999</v>
@@ -38005,14 +37764,14 @@
         <v>1</v>
       </c>
       <c r="G423" s="53" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="H423" s="6"/>
       <c r="I423" s="53" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="J423" s="53" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="L423" s="53">
         <v>-31</v>
@@ -38030,10 +37789,10 @@
         <v>5800</v>
       </c>
       <c r="Q423" s="53" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="R423" s="54" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
       <c r="W423" s="53" t="s">
         <v>991</v>
@@ -38074,14 +37833,14 @@
         <v>1</v>
       </c>
       <c r="G424" s="53" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
       <c r="H424" s="6"/>
       <c r="I424" s="53" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="J424" s="53" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="L424" s="53">
         <v>-31</v>
@@ -38099,10 +37858,10 @@
         <v>12800</v>
       </c>
       <c r="Q424" s="53" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="R424" s="54" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="W424" s="53" t="s">
         <v>991</v>
@@ -38143,10 +37902,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="J425" s="6" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="L425" s="6">
         <v>-31</v>
@@ -38164,10 +37923,10 @@
         <v>49800</v>
       </c>
       <c r="Q425" s="6" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="R425" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W425" s="6" t="s">
         <v>569</v>
@@ -38199,10 +37958,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="J426" s="6" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="L426" s="6">
         <v>-31</v>
@@ -38220,13 +37979,13 @@
         <v>19800</v>
       </c>
       <c r="Q426" s="6" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="R426" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W426" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X426" s="6">
         <v>9999999</v>
@@ -38255,10 +38014,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="J427" s="6" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="L427" s="6">
         <v>-31</v>
@@ -38276,13 +38035,13 @@
         <v>9800</v>
       </c>
       <c r="Q427" s="6" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="R427" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W427" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X427" s="6">
         <v>9999999</v>
@@ -38311,10 +38070,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="J428" s="6" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="L428" s="6">
         <v>-31</v>
@@ -38332,13 +38091,13 @@
         <v>9800</v>
       </c>
       <c r="Q428" s="6" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="R428" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W428" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X428" s="6">
         <v>9999999</v>
@@ -38367,10 +38126,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="J429" s="6" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="L429" s="6">
         <v>-31</v>
@@ -38388,13 +38147,13 @@
         <v>4800</v>
       </c>
       <c r="Q429" s="6" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="R429" s="52" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="W429" s="6" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="X429" s="6">
         <v>9999999</v>
@@ -38423,13 +38182,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="43" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="I430" s="43" t="s">
-        <v>1725</v>
+        <v>1716</v>
       </c>
       <c r="J430" s="43" t="s">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="L430" s="43">
         <v>-28</v>
@@ -38447,13 +38206,13 @@
         <v>100</v>
       </c>
       <c r="Q430" s="43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="R430" s="66" t="s">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="W430" s="43" t="s">
-        <v>1728</v>
+        <v>1719</v>
       </c>
       <c r="X430" s="43">
         <v>9999999</v>
@@ -38491,13 +38250,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="43" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="I431" s="43" t="s">
-        <v>1729</v>
+        <v>1720</v>
       </c>
       <c r="J431" s="43" t="s">
-        <v>1730</v>
+        <v>1721</v>
       </c>
       <c r="L431" s="43">
         <v>-28</v>
@@ -38515,10 +38274,10 @@
         <v>300</v>
       </c>
       <c r="Q431" s="43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="R431" s="66" t="s">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="W431" s="43" t="s">
         <v>528</v>
@@ -38559,13 +38318,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="43" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I432" s="43" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J432" s="43" t="s">
         <v>1724</v>
-      </c>
-      <c r="I432" s="43" t="s">
-        <v>1732</v>
-      </c>
-      <c r="J432" s="43" t="s">
-        <v>1733</v>
       </c>
       <c r="L432" s="43">
         <v>-28</v>
@@ -38583,10 +38342,10 @@
         <v>600</v>
       </c>
       <c r="Q432" s="43" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="R432" s="66" t="s">
-        <v>1734</v>
+        <v>1725</v>
       </c>
       <c r="W432" s="43" t="s">
         <v>528</v>
@@ -38627,13 +38386,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="43" t="s">
-        <v>1724</v>
+        <v>1715</v>
       </c>
       <c r="I433" s="43" t="s">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="J433" s="43" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="L433" s="43">
         <v>-28</v>
@@ -38651,10 +38410,10 @@
         <v>600</v>
       </c>
       <c r="Q433" s="43" t="s">
-        <v>1737</v>
+        <v>1728</v>
       </c>
       <c r="R433" s="66" t="s">
-        <v>1738</v>
+        <v>1729</v>
       </c>
       <c r="W433" s="43" t="s">
         <v>528</v>
@@ -38695,14 +38454,14 @@
         <v>1</v>
       </c>
       <c r="G434" s="55" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="H434" s="5"/>
       <c r="I434" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J434" s="55" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="L434" s="55">
         <v>-31</v>
@@ -38720,10 +38479,10 @@
         <v>1800</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="R434" s="56" t="s">
-        <v>1356</v>
+        <v>1347</v>
       </c>
       <c r="W434" s="55" t="s">
         <v>528</v>
@@ -38761,14 +38520,14 @@
         <v>1</v>
       </c>
       <c r="G435" s="55" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
       <c r="H435" s="5"/>
       <c r="I435" s="55" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
       <c r="J435" s="55" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="L435" s="55">
         <v>-31</v>
@@ -38786,10 +38545,10 @@
         <v>4800</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="R435" s="56" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="W435" s="55" t="s">
         <v>528</v>
@@ -38827,14 +38586,14 @@
         <v>1</v>
       </c>
       <c r="G436" s="55" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
       <c r="H436" s="5"/>
       <c r="I436" s="55" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="J436" s="55" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="L436" s="55">
         <v>-31</v>
@@ -38852,10 +38611,10 @@
         <v>9800</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="R436" s="56" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
       <c r="W436" s="55" t="s">
         <v>528</v>
@@ -38893,14 +38652,14 @@
         <v>1</v>
       </c>
       <c r="G437" s="55" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="H437" s="5"/>
       <c r="I437" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J437" s="55" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="L437" s="55">
         <v>-31</v>
@@ -38918,10 +38677,10 @@
         <v>19800</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
       <c r="R437" s="56" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="W437" s="55" t="s">
         <v>528</v>
@@ -38959,14 +38718,14 @@
         <v>1</v>
       </c>
       <c r="G438" s="55" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
       <c r="H438" s="5"/>
       <c r="I438" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J438" s="55" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="L438" s="55">
         <v>-31</v>
@@ -38984,10 +38743,10 @@
         <v>29800</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
       <c r="R438" s="56" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
       <c r="W438" s="55" t="s">
         <v>528</v>
@@ -39025,14 +38784,14 @@
         <v>1</v>
       </c>
       <c r="G439" s="55" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
       <c r="H439" s="5"/>
       <c r="I439" s="55" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
       <c r="J439" s="55" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="L439" s="55">
         <v>-31</v>
@@ -39050,10 +38809,10 @@
         <v>49800</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="R439" s="56" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
       <c r="W439" s="55" t="s">
         <v>528</v>
@@ -39091,14 +38850,14 @@
         <v>1</v>
       </c>
       <c r="G440" s="55" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="H440" s="5"/>
       <c r="I440" s="55" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="J440" s="55" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="L440" s="55">
         <v>-31</v>
@@ -39116,10 +38875,10 @@
         <v>99800</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
       <c r="R440" s="56" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
       <c r="W440" s="55" t="s">
         <v>528</v>
@@ -39157,11 +38916,11 @@
         <v>1</v>
       </c>
       <c r="G441" s="53" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="H441" s="5"/>
       <c r="J441" s="53" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
       <c r="L441" s="53">
         <v>-31</v>
@@ -39179,13 +38938,13 @@
         <v>49800</v>
       </c>
       <c r="Q441" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R441" s="54" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="W441" s="53" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="X441" s="53">
         <v>9999999</v>
@@ -39220,11 +38979,11 @@
         <v>1</v>
       </c>
       <c r="G442" s="53" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="H442" s="5"/>
       <c r="J442" s="53" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
       <c r="L442" s="53">
         <v>-31</v>
@@ -39242,13 +39001,13 @@
         <v>19800</v>
       </c>
       <c r="Q442" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R442" s="54" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="W442" s="53" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="X442" s="53">
         <v>9999999</v>
@@ -39283,11 +39042,11 @@
         <v>1</v>
       </c>
       <c r="G443" s="53" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="H443" s="5"/>
       <c r="J443" s="53" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="L443" s="53">
         <v>-31</v>
@@ -39305,13 +39064,13 @@
         <v>9800</v>
       </c>
       <c r="Q443" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R443" s="54" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="W443" s="53" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
       <c r="X443" s="53">
         <v>9999999</v>
@@ -39346,11 +39105,11 @@
         <v>1</v>
       </c>
       <c r="G444" s="53" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
       <c r="H444" s="5"/>
       <c r="J444" s="53" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L444" s="53">
         <v>-31</v>
@@ -39368,13 +39127,13 @@
         <v>4800</v>
       </c>
       <c r="Q444" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R444" s="54" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="W444" s="53" t="s">
-        <v>1513</v>
+        <v>1504</v>
       </c>
       <c r="X444" s="53">
         <v>9999999</v>
@@ -39409,11 +39168,11 @@
         <v>1</v>
       </c>
       <c r="G445" s="53" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="H445" s="5"/>
       <c r="J445" s="53" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="L445" s="53">
         <v>-31</v>
@@ -39431,13 +39190,13 @@
         <v>2000</v>
       </c>
       <c r="Q445" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R445" s="54" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="W445" s="53" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X445" s="53">
         <v>9999999</v>
@@ -39472,11 +39231,11 @@
         <v>1</v>
       </c>
       <c r="G446" s="53" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="H446" s="5"/>
       <c r="J446" s="53" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="L446" s="53">
         <v>-31</v>
@@ -39494,13 +39253,13 @@
         <v>600</v>
       </c>
       <c r="Q446" s="53" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="R446" s="54" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="W446" s="53" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X446" s="53">
         <v>9999999</v>
@@ -39535,13 +39294,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="57" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="I447" s="57" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="J447" s="57" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="L447" s="57">
         <v>-31</v>
@@ -39559,13 +39318,13 @@
         <v>800</v>
       </c>
       <c r="Q447" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R447" s="58" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="W447" s="5" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X447" s="57">
         <v>9999999</v>
@@ -39603,13 +39362,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="57" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="I448" s="57" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="J448" s="57" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="L448" s="57">
         <v>-31</v>
@@ -39627,13 +39386,13 @@
         <v>800</v>
       </c>
       <c r="Q448" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R448" s="58" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="X448" s="57">
         <v>9999999</v>
@@ -39668,13 +39427,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="57" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="I449" s="57" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="J449" s="57" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
       <c r="L449" s="57">
         <v>-31</v>
@@ -39692,10 +39451,10 @@
         <v>800</v>
       </c>
       <c r="Q449" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R449" s="58" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
       <c r="W449" s="5" t="s">
         <v>528</v>
@@ -39736,13 +39495,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="59" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="I450" s="59" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="J450" s="59" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="L450" s="59">
         <v>-31</v>
@@ -39760,10 +39519,10 @@
         <v>3800</v>
       </c>
       <c r="Q450" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R450" s="60" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="W450" s="5" t="s">
         <v>528</v>
@@ -39804,13 +39563,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="59" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="I451" s="59" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="J451" s="59" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="L451" s="59">
         <v>-31</v>
@@ -39828,10 +39587,10 @@
         <v>3800</v>
       </c>
       <c r="Q451" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R451" s="60" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="W451" s="5" t="s">
         <v>528</v>
@@ -39869,13 +39628,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="59" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="I452" s="59" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="J452" s="59" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="L452" s="59">
         <v>-31</v>
@@ -39893,10 +39652,10 @@
         <v>3800</v>
       </c>
       <c r="Q452" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R452" s="60" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="W452" s="5" t="s">
         <v>528</v>
@@ -39937,13 +39696,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="57" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="I453" s="57" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="J453" s="57" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="L453" s="57">
         <v>-31</v>
@@ -39961,10 +39720,10 @@
         <v>9800</v>
       </c>
       <c r="Q453" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R453" s="58" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="W453" s="5" t="s">
         <v>528</v>
@@ -40005,13 +39764,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="57" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="I454" s="57" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="J454" s="57" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="L454" s="57">
         <v>-31</v>
@@ -40032,7 +39791,7 @@
         <v>998</v>
       </c>
       <c r="R454" s="58" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="W454" s="5" t="s">
         <v>528</v>
@@ -40070,13 +39829,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="57" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="I455" s="57" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
       <c r="J455" s="57" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
       <c r="L455" s="57">
         <v>-31</v>
@@ -40094,10 +39853,10 @@
         <v>9800</v>
       </c>
       <c r="Q455" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R455" s="58" t="s">
-        <v>1689</v>
+        <v>1680</v>
       </c>
       <c r="W455" s="5" t="s">
         <v>528</v>
@@ -40138,13 +39897,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="I456" s="59" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="J456" s="59" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="L456" s="59">
         <v>-31</v>
@@ -40165,7 +39924,7 @@
         <v>998</v>
       </c>
       <c r="R456" s="60" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="W456" s="5" t="s">
         <v>528</v>
@@ -40206,13 +39965,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
       <c r="I457" s="59" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
       <c r="J457" s="59" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="L457" s="59">
         <v>-31</v>
@@ -40230,10 +39989,10 @@
         <v>19800</v>
       </c>
       <c r="Q457" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R457" s="60" t="s">
-        <v>1564</v>
+        <v>1555</v>
       </c>
       <c r="W457" s="5" t="s">
         <v>528</v>
@@ -40271,13 +40030,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
-        <v>1565</v>
+        <v>1556</v>
       </c>
       <c r="I458" s="59" t="s">
-        <v>1566</v>
+        <v>1557</v>
       </c>
       <c r="J458" s="59" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
       <c r="L458" s="59">
         <v>-31</v>
@@ -40298,7 +40057,7 @@
         <v>998</v>
       </c>
       <c r="R458" s="60" t="s">
-        <v>1568</v>
+        <v>1559</v>
       </c>
       <c r="W458" s="5" t="s">
         <v>528</v>
@@ -40339,13 +40098,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
-        <v>1569</v>
+        <v>1560</v>
       </c>
       <c r="I459" s="57" t="s">
-        <v>1570</v>
+        <v>1561</v>
       </c>
       <c r="J459" s="57" t="s">
-        <v>1571</v>
+        <v>1562</v>
       </c>
       <c r="L459" s="57">
         <v>-31</v>
@@ -40363,10 +40122,10 @@
         <v>49800</v>
       </c>
       <c r="Q459" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R459" s="58" t="s">
-        <v>1572</v>
+        <v>1563</v>
       </c>
       <c r="W459" s="5" t="s">
         <v>528</v>
@@ -40407,13 +40166,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
-        <v>1573</v>
+        <v>1564</v>
       </c>
       <c r="I460" s="57" t="s">
-        <v>1574</v>
+        <v>1565</v>
       </c>
       <c r="J460" s="57" t="s">
-        <v>1575</v>
+        <v>1566</v>
       </c>
       <c r="L460" s="57">
         <v>-31</v>
@@ -40431,10 +40190,10 @@
         <v>49800</v>
       </c>
       <c r="Q460" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R460" s="58" t="s">
-        <v>1576</v>
+        <v>1567</v>
       </c>
       <c r="W460" s="5" t="s">
         <v>528</v>
@@ -40472,13 +40231,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
-        <v>1577</v>
+        <v>1568</v>
       </c>
       <c r="I461" s="57" t="s">
-        <v>1578</v>
+        <v>1569</v>
       </c>
       <c r="J461" s="57" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="L461" s="57">
         <v>-31</v>
@@ -40496,10 +40255,10 @@
         <v>49800</v>
       </c>
       <c r="Q461" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R461" s="58" t="s">
-        <v>1580</v>
+        <v>1571</v>
       </c>
       <c r="W461" s="5" t="s">
         <v>528</v>
@@ -40540,13 +40299,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="I462" s="59" t="s">
-        <v>1582</v>
+        <v>1573</v>
       </c>
       <c r="J462" s="59" t="s">
-        <v>1583</v>
+        <v>1574</v>
       </c>
       <c r="L462" s="59">
         <v>-31</v>
@@ -40567,7 +40326,7 @@
         <v>998</v>
       </c>
       <c r="R462" s="60" t="s">
-        <v>1584</v>
+        <v>1575</v>
       </c>
       <c r="W462" s="5" t="s">
         <v>528</v>
@@ -40608,13 +40367,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="I463" s="59" t="s">
-        <v>1586</v>
+        <v>1577</v>
       </c>
       <c r="J463" s="59" t="s">
-        <v>1587</v>
+        <v>1578</v>
       </c>
       <c r="L463" s="59">
         <v>-31</v>
@@ -40632,10 +40391,10 @@
         <v>99800</v>
       </c>
       <c r="Q463" s="59" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R463" s="60" t="s">
-        <v>1588</v>
+        <v>1579</v>
       </c>
       <c r="W463" s="5" t="s">
         <v>528</v>
@@ -40673,13 +40432,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
-        <v>1589</v>
+        <v>1580</v>
       </c>
       <c r="I464" s="59" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
       <c r="J464" s="59" t="s">
-        <v>1591</v>
+        <v>1582</v>
       </c>
       <c r="L464" s="59">
         <v>-31</v>
@@ -40700,7 +40459,7 @@
         <v>998</v>
       </c>
       <c r="R464" s="60" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="W464" s="5" t="s">
         <v>528</v>
@@ -40741,13 +40500,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="I465" s="57" t="s">
-        <v>1594</v>
+        <v>1585</v>
       </c>
       <c r="J465" s="57" t="s">
-        <v>1595</v>
+        <v>1586</v>
       </c>
       <c r="L465" s="57">
         <v>-31</v>
@@ -40765,10 +40524,10 @@
         <v>249800</v>
       </c>
       <c r="Q465" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R465" s="58" t="s">
-        <v>1596</v>
+        <v>1587</v>
       </c>
       <c r="W465" s="5" t="s">
         <v>528</v>
@@ -40809,13 +40568,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="I466" s="57" t="s">
-        <v>1598</v>
+        <v>1589</v>
       </c>
       <c r="J466" s="57" t="s">
-        <v>1599</v>
+        <v>1590</v>
       </c>
       <c r="L466" s="57">
         <v>-31</v>
@@ -40833,10 +40592,10 @@
         <v>249800</v>
       </c>
       <c r="Q466" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R466" s="58" t="s">
-        <v>1600</v>
+        <v>1591</v>
       </c>
       <c r="W466" s="5" t="s">
         <v>528</v>
@@ -40874,13 +40633,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
-        <v>1601</v>
+        <v>1592</v>
       </c>
       <c r="I467" s="57" t="s">
-        <v>1602</v>
+        <v>1593</v>
       </c>
       <c r="J467" s="57" t="s">
-        <v>1603</v>
+        <v>1594</v>
       </c>
       <c r="L467" s="57">
         <v>-31</v>
@@ -40898,10 +40657,10 @@
         <v>249800</v>
       </c>
       <c r="Q467" s="57" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R467" s="58" t="s">
-        <v>1604</v>
+        <v>1595</v>
       </c>
       <c r="W467" s="5" t="s">
         <v>528</v>
@@ -40942,13 +40701,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
-        <v>1605</v>
+        <v>1596</v>
       </c>
       <c r="I468" s="61" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J468" s="61" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="L468" s="61">
         <v>-31</v>
@@ -40966,13 +40725,13 @@
         <v>600</v>
       </c>
       <c r="Q468" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R468" s="62" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="W468" s="61" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="X468" s="61">
         <v>9999999</v>
@@ -41007,13 +40766,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
-        <v>1611</v>
+        <v>1602</v>
       </c>
       <c r="I469" s="61" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J469" s="61" t="s">
-        <v>1613</v>
+        <v>1604</v>
       </c>
       <c r="L469" s="61">
         <v>-31</v>
@@ -41034,10 +40793,10 @@
         <v>998</v>
       </c>
       <c r="R469" s="62" t="s">
-        <v>1614</v>
+        <v>1605</v>
       </c>
       <c r="W469" s="61" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="X469" s="61">
         <v>9999999</v>
@@ -41072,13 +40831,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
-        <v>1615</v>
+        <v>1606</v>
       </c>
       <c r="I470" s="61" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J470" s="61" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
       <c r="L470" s="61">
         <v>-31</v>
@@ -41096,13 +40855,13 @@
         <v>6800</v>
       </c>
       <c r="Q470" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R470" s="62" t="s">
-        <v>1617</v>
+        <v>1608</v>
       </c>
       <c r="W470" s="61" t="s">
-        <v>1610</v>
+        <v>1601</v>
       </c>
       <c r="X470" s="61">
         <v>9999999</v>
@@ -41137,13 +40896,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
-        <v>1618</v>
+        <v>1609</v>
       </c>
       <c r="I471" s="61" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J471" s="61" t="s">
-        <v>1619</v>
+        <v>1610</v>
       </c>
       <c r="L471" s="61">
         <v>-31</v>
@@ -41161,13 +40920,13 @@
         <v>9800</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R471" s="62" t="s">
-        <v>1620</v>
+        <v>1611</v>
       </c>
       <c r="W471" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X471" s="61">
         <v>9999999</v>
@@ -41202,13 +40961,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
-        <v>1622</v>
+        <v>1613</v>
       </c>
       <c r="I472" s="61" t="s">
-        <v>1606</v>
+        <v>1597</v>
       </c>
       <c r="J472" s="61" t="s">
-        <v>1623</v>
+        <v>1614</v>
       </c>
       <c r="L472" s="61">
         <v>-31</v>
@@ -41229,10 +40988,10 @@
         <v>998</v>
       </c>
       <c r="R472" s="62" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="W472" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X472" s="61">
         <v>9999999</v>
@@ -41267,13 +41026,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="I473" s="61" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J473" s="61" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="L473" s="61">
         <v>-31</v>
@@ -41291,13 +41050,13 @@
         <v>49800</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R473" s="62" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="W473" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X473" s="61">
         <v>9999999</v>
@@ -41332,14 +41091,14 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="H474" s="76"/>
       <c r="I474" s="55" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J474" s="55" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="L474" s="55">
         <v>-31</v>
@@ -41357,13 +41116,13 @@
         <v>99800</v>
       </c>
       <c r="Q474" s="55" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R474" s="56" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="W474" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X474" s="55">
         <v>9999999</v>
@@ -41398,14 +41157,14 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="H475" s="76"/>
       <c r="I475" s="55" t="s">
-        <v>1612</v>
+        <v>1603</v>
       </c>
       <c r="J475" s="55" t="s">
-        <v>1691</v>
+        <v>1682</v>
       </c>
       <c r="L475" s="55">
         <v>-31</v>
@@ -41423,13 +41182,13 @@
         <v>249800</v>
       </c>
       <c r="Q475" s="55" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="R475" s="56" t="s">
-        <v>1690</v>
+        <v>1681</v>
       </c>
       <c r="W475" s="61" t="s">
-        <v>1621</v>
+        <v>1612</v>
       </c>
       <c r="X475" s="55">
         <v>9999999</v>
@@ -41464,13 +41223,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="I476" s="67" t="s">
-        <v>1675</v>
+        <v>1666</v>
       </c>
       <c r="J476" s="67" t="s">
-        <v>1676</v>
+        <v>1667</v>
       </c>
       <c r="L476" s="67">
         <v>-31</v>
@@ -41488,13 +41247,13 @@
         <v>49800</v>
       </c>
       <c r="Q476" s="67" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="R476" s="68" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="W476" s="67" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X476" s="67">
         <v>9999999</v>
@@ -41529,13 +41288,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="J477" s="67" t="s">
-        <v>1680</v>
+        <v>1671</v>
       </c>
       <c r="L477" s="67">
         <v>-31</v>
@@ -41553,13 +41312,13 @@
         <v>19800</v>
       </c>
       <c r="Q477" s="67" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="R477" s="68" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="W477" s="67" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X477" s="67">
         <v>9999999</v>
@@ -41594,13 +41353,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I478" s="67" t="s">
+        <v>1673</v>
+      </c>
+      <c r="J478" s="67" t="s">
         <v>1674</v>
-      </c>
-      <c r="I478" s="67" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J478" s="67" t="s">
-        <v>1683</v>
       </c>
       <c r="L478" s="67">
         <v>-31</v>
@@ -41618,7 +41377,7 @@
         <v>9800</v>
       </c>
       <c r="Q478" s="67" t="s">
-        <v>1684</v>
+        <v>1675</v>
       </c>
       <c r="R478" s="68" t="s">
         <v>757</v>
@@ -41659,13 +41418,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1674</v>
+        <v>1665</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="J479" s="67" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="L479" s="67">
         <v>-31</v>
@@ -41683,13 +41442,13 @@
         <v>4800</v>
       </c>
       <c r="Q479" s="67" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="R479" s="68" t="s">
-        <v>1688</v>
+        <v>1679</v>
       </c>
       <c r="W479" s="67" t="s">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="X479" s="67">
         <v>9999999</v>
@@ -41724,10 +41483,10 @@
         <v>1</v>
       </c>
       <c r="G480" s="53" t="s">
-        <v>1692</v>
+        <v>1683</v>
       </c>
       <c r="J480" s="53" t="s">
-        <v>1693</v>
+        <v>1684</v>
       </c>
       <c r="L480" s="53">
         <v>-31</v>
@@ -41745,13 +41504,13 @@
         <v>49800</v>
       </c>
       <c r="Q480" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R480" s="54" t="s">
-        <v>1695</v>
+        <v>1686</v>
       </c>
       <c r="W480" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X480" s="53">
         <v>9999999</v>
@@ -41789,7 +41548,7 @@
         <v>356</v>
       </c>
       <c r="J481" s="53" t="s">
-        <v>1697</v>
+        <v>1688</v>
       </c>
       <c r="L481" s="53">
         <v>-31</v>
@@ -41807,13 +41566,13 @@
         <v>19800</v>
       </c>
       <c r="Q481" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R481" s="54" t="s">
-        <v>1698</v>
+        <v>1689</v>
       </c>
       <c r="W481" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X481" s="53">
         <v>9999999</v>
@@ -41851,7 +41610,7 @@
         <v>355</v>
       </c>
       <c r="J482" s="53" t="s">
-        <v>1699</v>
+        <v>1690</v>
       </c>
       <c r="L482" s="53">
         <v>-31</v>
@@ -41869,13 +41628,13 @@
         <v>9800</v>
       </c>
       <c r="Q482" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R482" s="54" t="s">
-        <v>1700</v>
+        <v>1691</v>
       </c>
       <c r="W482" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X482" s="53">
         <v>9999999</v>
@@ -41913,7 +41672,7 @@
         <v>354</v>
       </c>
       <c r="J483" s="53" t="s">
-        <v>1701</v>
+        <v>1692</v>
       </c>
       <c r="L483" s="53">
         <v>-31</v>
@@ -41931,13 +41690,13 @@
         <v>4800</v>
       </c>
       <c r="Q483" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R483" s="54" t="s">
-        <v>1702</v>
+        <v>1693</v>
       </c>
       <c r="W483" s="53" t="s">
-        <v>1696</v>
+        <v>1687</v>
       </c>
       <c r="X483" s="53">
         <v>9999999</v>
@@ -41972,10 +41731,10 @@
         <v>1</v>
       </c>
       <c r="G484" s="53" t="s">
-        <v>1703</v>
+        <v>1694</v>
       </c>
       <c r="J484" s="53" t="s">
-        <v>1704</v>
+        <v>1695</v>
       </c>
       <c r="L484" s="53">
         <v>-31</v>
@@ -41993,13 +41752,13 @@
         <v>2000</v>
       </c>
       <c r="Q484" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R484" s="54" t="s">
-        <v>1705</v>
+        <v>1696</v>
       </c>
       <c r="W484" s="53" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="X484" s="53">
         <v>9999999</v>
@@ -42034,10 +41793,10 @@
         <v>1</v>
       </c>
       <c r="G485" s="53" t="s">
-        <v>1707</v>
+        <v>1698</v>
       </c>
       <c r="J485" s="53" t="s">
-        <v>1708</v>
+        <v>1699</v>
       </c>
       <c r="L485" s="53">
         <v>-31</v>
@@ -42055,13 +41814,13 @@
         <v>600</v>
       </c>
       <c r="Q485" s="53" t="s">
-        <v>1694</v>
+        <v>1685</v>
       </c>
       <c r="R485" s="54" t="s">
-        <v>1709</v>
+        <v>1700</v>
       </c>
       <c r="W485" s="53" t="s">
-        <v>1706</v>
+        <v>1697</v>
       </c>
       <c r="X485" s="53">
         <v>9999999</v>
@@ -42096,13 +41855,13 @@
         <v>1</v>
       </c>
       <c r="G486" s="19" t="s">
-        <v>1846</v>
+        <v>1805</v>
       </c>
       <c r="I486" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J486" s="19" t="s">
-        <v>1848</v>
+        <v>1807</v>
       </c>
       <c r="L486" s="19">
         <v>-31</v>
@@ -42120,10 +41879,10 @@
         <v>1800</v>
       </c>
       <c r="Q486" s="19" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="R486" s="39" t="s">
-        <v>1850</v>
+        <v>1809</v>
       </c>
       <c r="W486" s="19" t="s">
         <v>528</v>
@@ -42161,13 +41920,13 @@
         <v>1</v>
       </c>
       <c r="G487" s="19" t="s">
-        <v>1851</v>
+        <v>1810</v>
       </c>
       <c r="I487" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J487" s="19" t="s">
-        <v>1852</v>
+        <v>1811</v>
       </c>
       <c r="L487" s="19">
         <v>-31</v>
@@ -42185,10 +41944,10 @@
         <v>4800</v>
       </c>
       <c r="Q487" s="19" t="s">
-        <v>1849</v>
+        <v>1808</v>
       </c>
       <c r="R487" s="39" t="s">
-        <v>1853</v>
+        <v>1812</v>
       </c>
       <c r="W487" s="19" t="s">
         <v>528</v>
@@ -42226,13 +41985,13 @@
         <v>1</v>
       </c>
       <c r="G488" s="19" t="s">
-        <v>1854</v>
+        <v>1813</v>
       </c>
       <c r="I488" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J488" s="19" t="s">
-        <v>1855</v>
+        <v>1814</v>
       </c>
       <c r="L488" s="19">
         <v>-31</v>
@@ -42250,10 +42009,10 @@
         <v>9800</v>
       </c>
       <c r="Q488" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="R488" s="39" t="s">
-        <v>1857</v>
+        <v>1816</v>
       </c>
       <c r="W488" s="19" t="s">
         <v>528</v>
@@ -42291,13 +42050,13 @@
         <v>1</v>
       </c>
       <c r="G489" s="19" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="I489" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J489" s="19" t="s">
-        <v>1858</v>
+        <v>1817</v>
       </c>
       <c r="L489" s="19">
         <v>-31</v>
@@ -42315,10 +42074,10 @@
         <v>19800</v>
       </c>
       <c r="Q489" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="R489" s="39" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="W489" s="19" t="s">
         <v>528</v>
@@ -42356,13 +42115,13 @@
         <v>1</v>
       </c>
       <c r="G490" s="19" t="s">
-        <v>1859</v>
+        <v>1818</v>
       </c>
       <c r="I490" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J490" s="19" t="s">
-        <v>1860</v>
+        <v>1819</v>
       </c>
       <c r="L490" s="19">
         <v>-31</v>
@@ -42380,10 +42139,10 @@
         <v>29800</v>
       </c>
       <c r="Q490" s="19" t="s">
-        <v>1856</v>
+        <v>1815</v>
       </c>
       <c r="R490" s="39" t="s">
-        <v>1861</v>
+        <v>1820</v>
       </c>
       <c r="W490" s="19" t="s">
         <v>528</v>
@@ -42421,13 +42180,13 @@
         <v>1</v>
       </c>
       <c r="G491" s="19" t="s">
-        <v>1862</v>
+        <v>1821</v>
       </c>
       <c r="I491" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J491" s="19" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="L491" s="19">
         <v>-31</v>
@@ -42445,10 +42204,10 @@
         <v>49800</v>
       </c>
       <c r="Q491" s="19" t="s">
-        <v>1863</v>
+        <v>1822</v>
       </c>
       <c r="R491" s="39" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="W491" s="19" t="s">
         <v>528</v>
@@ -42486,13 +42245,13 @@
         <v>1</v>
       </c>
       <c r="G492" s="19" t="s">
-        <v>1864</v>
+        <v>1823</v>
       </c>
       <c r="I492" s="19" t="s">
-        <v>1847</v>
+        <v>1806</v>
       </c>
       <c r="J492" s="19" t="s">
-        <v>1865</v>
+        <v>1824</v>
       </c>
       <c r="L492" s="19">
         <v>-31</v>
@@ -42504,19 +42263,19 @@
         <v>0</v>
       </c>
       <c r="O492" s="19" t="s">
-        <v>1866</v>
+        <v>1825</v>
       </c>
       <c r="P492" s="19">
         <v>99800</v>
       </c>
       <c r="Q492" s="19" t="s">
-        <v>1863</v>
+        <v>1822</v>
       </c>
       <c r="R492" s="39" t="s">
-        <v>1867</v>
+        <v>1826</v>
       </c>
       <c r="W492" s="19" t="s">
-        <v>1868</v>
+        <v>1827</v>
       </c>
       <c r="X492" s="19">
         <v>9999999</v>
@@ -42938,7 +42697,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -42952,7 +42711,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -42966,7 +42725,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -42980,7 +42739,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -42994,7 +42753,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1238</v>
+        <v>1229</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -43008,7 +42767,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1239</v>
+        <v>1230</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -43022,7 +42781,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1240</v>
+        <v>1231</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -43036,7 +42795,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1241</v>
+        <v>1232</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -43050,7 +42809,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1242</v>
+        <v>1233</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -43064,7 +42823,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1243</v>
+        <v>1234</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -43078,7 +42837,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -43092,7 +42851,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1245</v>
+        <v>1236</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -43106,7 +42865,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1246</v>
+        <v>1237</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -43120,7 +42879,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1247</v>
+        <v>1238</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -43134,7 +42893,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -43148,7 +42907,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1249</v>
+        <v>1240</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -43162,7 +42921,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1279</v>
+        <v>1270</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -43176,7 +42935,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1280</v>
+        <v>1271</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -43190,7 +42949,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -43204,7 +42963,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -43218,7 +42977,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -43232,7 +42991,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="48" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="C48" s="47">
         <v>1</v>
@@ -43246,7 +43005,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="C49" s="47">
         <v>1</v>
@@ -43260,7 +43019,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="C50" s="47">
         <v>1</v>
@@ -43274,7 +43033,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="C51" s="47">
         <v>1</v>
@@ -43288,7 +43047,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C52" s="47">
         <v>1</v>
@@ -43302,7 +43061,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -43316,7 +43075,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -43330,7 +43089,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -43344,7 +43103,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -43358,7 +43117,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -43372,7 +43131,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -43386,7 +43145,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -43400,7 +43159,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -43414,7 +43173,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -43428,7 +43187,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -43442,7 +43201,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -43456,7 +43215,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -43470,7 +43229,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -43484,7 +43243,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>
@@ -43504,8 +43263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43583,7 +43342,7 @@
         <v>29</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -43666,19 +43425,19 @@
         <v>3</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>1793</v>
+        <v>1828</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>1815</v>
+        <v>1829</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>407</v>
@@ -43734,19 +43493,19 @@
         <v>4</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>1794</v>
+        <v>1830</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1816</v>
+        <v>1831</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U3" s="33" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>407</v>
@@ -43802,13 +43561,13 @@
         <v>5</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>1795</v>
+        <v>1832</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>1817</v>
+        <v>1833</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>50</v>
@@ -43870,19 +43629,19 @@
         <v>6</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>1796</v>
+        <v>1834</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>1818</v>
+        <v>1835</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>51</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>407</v>
@@ -43938,13 +43697,13 @@
         <v>7</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>1797</v>
+        <v>1836</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>1819</v>
+        <v>1837</v>
       </c>
       <c r="S6" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>52</v>
@@ -44006,13 +43765,13 @@
         <v>9</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>1798</v>
+        <v>1838</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>1820</v>
+        <v>1839</v>
       </c>
       <c r="S7" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>53</v>
@@ -44071,19 +43830,19 @@
         <v>0</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>1799</v>
+        <v>1840</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>1821</v>
+        <v>1841</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>47</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V8" s="11" t="s">
         <v>407</v>
@@ -44138,10 +43897,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>1822</v>
+        <v>1790</v>
       </c>
       <c r="R9" s="34"/>
       <c r="S9" s="34"/>
@@ -44165,7 +43924,7 @@
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
       <c r="AC9" s="35" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44211,10 +43970,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>1823</v>
+        <v>1791</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
@@ -44238,7 +43997,7 @@
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
       <c r="AC10" s="35" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44282,13 +44041,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>1794</v>
+        <v>1830</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>1816</v>
+        <v>1831</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>49</v>
@@ -44314,7 +44073,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -44350,13 +44109,13 @@
         <v>9</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>1802</v>
+        <v>1842</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>1824</v>
+        <v>1843</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>54</v>
@@ -44418,13 +44177,13 @@
         <v>10</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>1803</v>
+        <v>1844</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>1825</v>
+        <v>1845</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>409</v>
@@ -44486,13 +44245,13 @@
         <v>11</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>1804</v>
+        <v>1846</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>1826</v>
+        <v>1847</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>410</v>
@@ -44525,7 +44284,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="G15" s="34">
         <v>100</v>
@@ -44555,10 +44314,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>1805</v>
+        <v>1786</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>1827</v>
+        <v>1792</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="35"/>
@@ -44566,7 +44325,7 @@
         <v>100</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V15" s="34" t="s">
         <v>407</v>
@@ -44582,7 +44341,7 @@
       <c r="AA15" s="34"/>
       <c r="AB15" s="34"/>
       <c r="AC15" s="35" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -44629,20 +44388,20 @@
         <v>3</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>1806</v>
+        <v>1848</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>1828</v>
+        <v>1849</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V16" s="11" t="s">
         <v>407</v>
@@ -44697,14 +44456,14 @@
         <v>4</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>1807</v>
+        <v>1850</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>1829</v>
+        <v>1851</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>64</v>
@@ -44765,14 +44524,14 @@
         <v>5</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>1808</v>
+        <v>1852</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>1830</v>
+        <v>1853</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="33" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>67</v>
@@ -44833,14 +44592,14 @@
         <v>6</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>1809</v>
+        <v>1854</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>1831</v>
+        <v>1855</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="33" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>71</v>
@@ -44901,10 +44660,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>1810</v>
+        <v>1856</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>1832</v>
+        <v>1857</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>939</v>
@@ -44968,14 +44727,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>1811</v>
+        <v>901</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>1833</v>
+        <v>1858</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="33" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="T21" s="11" t="s">
         <v>77</v>
@@ -45041,10 +44800,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="35" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>1834</v>
+        <v>1793</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="35"/>
@@ -45052,7 +44811,7 @@
         <v>5000</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="V22" s="34" t="s">
         <v>407</v>
@@ -45112,10 +44871,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="35" t="s">
-        <v>1812</v>
+        <v>1787</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>1835</v>
+        <v>1794</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="35"/>
@@ -45185,10 +44944,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>1813</v>
+        <v>1788</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>1827</v>
+        <v>1792</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="35"/>
@@ -45196,7 +44955,7 @@
         <v>100</v>
       </c>
       <c r="U24" s="35" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
       <c r="V24" s="34" t="s">
         <v>407</v>
@@ -45212,7 +44971,7 @@
       <c r="AA24" s="34"/>
       <c r="AB24" s="34"/>
       <c r="AC24" s="35" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -45259,10 +45018,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>1814</v>
+        <v>1789</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>1836</v>
+        <v>1795</v>
       </c>
       <c r="S25" s="33" t="s">
         <v>940</v>
